--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716E2FBC-89F4-42C0-9699-EDC2E4A2E6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398AD69-1F58-41C6-B70F-79463B581FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3980" windowWidth="19200" windowHeight="7300" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-100" yWindow="3160" windowWidth="19300" windowHeight="8120" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>- Researched python loops to verify data using ChatGPT. Narrowed down to 2 methods.</t>
+  </si>
+  <si>
+    <t>Saved and published new data connector from Estuary Flow to Google Cloud</t>
   </si>
 </sst>
 </file>
@@ -362,11 +365,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,37 +797,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
-        <v>45103</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>48</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>45104</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>45103</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45102</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
+      <c r="B4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -833,40 +834,42 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>45102</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>45101</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -874,30 +877,31 @@
         <v>45101</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45100</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -908,7 +912,7 @@
         <v>45100</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -919,10 +923,10 @@
         <v>45100</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -930,10 +934,10 @@
         <v>45100</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -941,21 +945,21 @@
         <v>45100</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>45100</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -963,14 +967,25 @@
         <v>45099</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G5:G8">
+  <conditionalFormatting sqref="C1:D1048576 G6:G9">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398AD69-1F58-41C6-B70F-79463B581FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46444F44-87A7-459C-8A85-497867FB08BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="3160" windowWidth="19300" windowHeight="8120" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="0" yWindow="3160" windowWidth="19200" windowHeight="8120" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>Saved and published new data connector from Estuary Flow to Google Cloud</t>
+  </si>
+  <si>
+    <t>Created a Parquet file from PDF data. Working on setting up the data feed pipelie for embeddings and vectorization in Pinecone and Estuary</t>
+  </si>
+  <si>
+    <t>Features to work on in order:</t>
+  </si>
+  <si>
+    <t>1) Input data pipeline (Estuary, Pinecone)</t>
+  </si>
+  <si>
+    <t>2) Training data on MORE H2 documents</t>
+  </si>
+  <si>
+    <t>3) Build Web app interface</t>
   </si>
 </sst>
 </file>
@@ -339,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -365,11 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,91 +807,93 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>45104</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>45104</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>45103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45102</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>57</v>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>45102</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45101</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D8" s="9"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -889,30 +901,31 @@
         <v>45101</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45100</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -923,7 +936,7 @@
         <v>45100</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -934,10 +947,10 @@
         <v>45100</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,10 +958,10 @@
         <v>45100</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -956,21 +969,21 @@
         <v>45100</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>45100</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -978,14 +991,25 @@
         <v>45099</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G6:G9">
+  <conditionalFormatting sqref="G7:G10 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -1005,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,35 +1041,49 @@
     <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1053,7 +1091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1061,7 +1099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -1069,7 +1107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1077,7 +1115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1085,7 +1123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46444F44-87A7-459C-8A85-497867FB08BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EFC77-19AD-4B02-8338-372579A3498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3160" windowWidth="19200" windowHeight="8120" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
@@ -44,35 +44,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>List of capabilities</t>
   </si>
   <si>
-    <t>- Read/input text from any PDF</t>
-  </si>
-  <si>
-    <t>- Build knowledge from each PDF. Retain that state.</t>
-  </si>
-  <si>
-    <t>- Verify with user whether output is accurate.</t>
-  </si>
-  <si>
-    <t>- Refine knowledge through user-input.</t>
-  </si>
-  <si>
-    <t>- Verify/vet/re-learn from user-input.</t>
-  </si>
-  <si>
     <t>-- This must be able to cross-reference at least three other sources that come to similar conclusions</t>
   </si>
   <si>
     <t>- Think like succesful energy investors</t>
   </si>
   <si>
-    <t>- Award tokens for flagging errors and suggesting new, community-accepted answers.</t>
-  </si>
-  <si>
     <t>- Set base knowledge of Hydrogen</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>- Given string of questions, recommend further research, calculations, analysis.</t>
-  </si>
-  <si>
     <t>- Refine contractor's SOW after spend a few days working on algo myself.</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>How to change the sources the LLM uses?</t>
   </si>
   <si>
-    <t>- Add other documents that complement H2 TEA - (solar, wind, CCUS, biofuels, geothermal, nuclear, PPAs, incentives, legal, transportation, storage, ...)</t>
-  </si>
-  <si>
     <t>- Get Pinecone and Estuary setup for vectorstor DB and read two articles on Chrome. Research more into vectorstores</t>
   </si>
   <si>
@@ -302,6 +278,66 @@
   </si>
   <si>
     <t>3) Build Web app interface</t>
+  </si>
+  <si>
+    <t>Continued working on  input file for Estuary. Created a JSON and got feedback from Jenny on what to do next</t>
+  </si>
+  <si>
+    <t>rest the mind</t>
+  </si>
+  <si>
+    <t>Finish connection to estuary and contractor document</t>
+  </si>
+  <si>
+    <t>- Read/input text from any PDF, Excel/CSV, URL</t>
+  </si>
+  <si>
+    <t>- Add other documents that complement H2 TEA - (oil &amp; gas focused first:  CCUS, biofuels, RECs/PPAs, incentives, legal, transportation, storage, solar, wind, geothermal, nuclear...)</t>
+  </si>
+  <si>
+    <t>Briefly reserached developerts -&gt; Need to identify at least 5.</t>
+  </si>
+  <si>
+    <t>-- Li-ion batteries</t>
+  </si>
+  <si>
+    <t>-- Carbon capture, utilization, and sequestration</t>
+  </si>
+  <si>
+    <t>-- Refine knowledge through user feedback which is in the form of them providing PDFs or URLs</t>
+  </si>
+  <si>
+    <t>-- Verify/vet/re-learn from user-input.</t>
+  </si>
+  <si>
+    <t>- Build knowledge from all inputs and retain that state through entire interaction with user.</t>
+  </si>
+  <si>
+    <t>- Given string of questions, recommend other relevant prompts.</t>
+  </si>
+  <si>
+    <t>-- Better material on policy and credits (45V and 45Q)</t>
+  </si>
+  <si>
+    <t>- Consider other topics. Should somehow be very relevant to hydrogen such as competiting technologies.</t>
+  </si>
+  <si>
+    <t>- Verify with user whether output is accurate and update future answers.</t>
+  </si>
+  <si>
+    <t>Bold: Key activity map activities</t>
+  </si>
+  <si>
+    <t>-- After each prompt, provide a list of three relevant prompts</t>
+  </si>
+  <si>
+    <t>-- Award tokens for flagging errors and suggesting new, community-accepted answers.</t>
+  </si>
+  <si>
+    <t>- Other possible activities in MVP:</t>
+  </si>
+  <si>
+    <t>Worked on estuary connection, still no luck. Added to activity map.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -380,6 +416,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,13 +808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,230 +829,288 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>45110</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>45109</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>45108</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>45106</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>57</v>
+      <c r="B6" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45117</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>45105</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>45101</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
         <v>45101</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>45100</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>45100</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>45099</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7:G10 C1:D1048576">
+  <conditionalFormatting sqref="G12:G15 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -1031,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1043,92 +1144,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="12"/>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,110 +1270,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>45122</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+      <c r="A6" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
+      <c r="A13" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1303,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1323,22 +1454,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1359,12 +1490,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1384,47 +1515,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1447,37 +1578,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EFC77-19AD-4B02-8338-372579A3498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3F164-2E72-4BFE-9CC0-8672C1AB769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
     <sheet name="DailyRoutine" sheetId="9" r:id="rId2"/>
     <sheet name="Scratch" sheetId="7" r:id="rId3"/>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId4"/>
-    <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId5"/>
-    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId6"/>
-    <sheet name="AdditionalFeatures" sheetId="3" r:id="rId7"/>
-    <sheet name="UseCases" sheetId="4" r:id="rId8"/>
-    <sheet name="Monetization" sheetId="5" r:id="rId9"/>
+    <sheet name="ActivityMap" sheetId="10" r:id="rId5"/>
+    <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId6"/>
+    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId7"/>
+    <sheet name="AdditionalFeatures" sheetId="3" r:id="rId8"/>
+    <sheet name="UseCases" sheetId="4" r:id="rId9"/>
+    <sheet name="Monetization" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -338,6 +339,12 @@
   </si>
   <si>
     <t>Worked on estuary connection, still no luck. Added to activity map.</t>
+  </si>
+  <si>
+    <t>Researched how to prevent hallucination and added citations as output. Enhanced activity map.</t>
+  </si>
+  <si>
+    <t>- Includes information from TODAY on hydrogen technologies</t>
   </si>
 </sst>
 </file>
@@ -370,12 +377,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -390,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -413,16 +426,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +477,1666 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485589</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280149</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CAB9AC-F021-C029-6B37-78E491234B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2306545" y="691030"/>
+          <a:ext cx="1615516" cy="1484780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chatbot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> features with doman-specific knowledge: hydrogen energy tech</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329827</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4003865D-6D76-4079-BED6-172DC5E44999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7819090" y="339164"/>
+          <a:ext cx="1615516" cy="1484780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Up-to-date knowledge on hydrogen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>202080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBD2578-4287-4D1D-B9A7-FFC3D6F0F733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="407520" y="753036"/>
+          <a:ext cx="1615516" cy="1484780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Suggests related prompts based on user's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> prompt history</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149037</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>550583</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48B4FD7-32DD-4978-8338-46B3591C730E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9860802" y="756024"/>
+          <a:ext cx="1615516" cy="1484780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Provides citations of results.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Allows community to challenge them to improve</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413497</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208057</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A0E900-6409-40EE-939D-8FF1B0D40DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448423" y="5045262"/>
+          <a:ext cx="1615516" cy="1484780"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947CBFED-EA76-4DB1-AAB1-119692B412DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448234" y="2997573"/>
+          <a:ext cx="1820957" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retains knowledge state throughout interaction with user</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497914</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497915</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63D613B-6B44-41AE-AE1A-FD928C14BBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8995708" y="5391151"/>
+          <a:ext cx="1820957" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Incorporates knowledge from oil &amp; gas industry</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FFE5E4-2838-590C-E985-57A053A032E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2708089" y="28015"/>
+          <a:ext cx="3576544" cy="494926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Activity Map = decarbX_v1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>258108</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258109</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33991</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907DBAE3-EB43-4F35-9A3C-D8D7770B31D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934946" y="2798109"/>
+          <a:ext cx="1820957" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Users suggest new sources</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>36978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3DE88E-7141-421C-9DFA-9484710BA1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8796243" y="3174626"/>
+          <a:ext cx="1820957" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Users awarded token for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> initial suggestions</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534894</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513603</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C7FF09-675B-4167-8319-645FCC0FBB73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4783791" y="3784598"/>
+          <a:ext cx="1799665" cy="1267386"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Users awarded larger amount of tokens once three</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> others verify source</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58646</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>58643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4EAD3E-FFB2-41E3-BFBA-1274E7686A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3093571" y="3009526"/>
+          <a:ext cx="1820957" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fluid and fast interaction with user</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58645</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698BD449-FC74-67A2-F416-C6E18B2060DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2269191" y="3483161"/>
+          <a:ext cx="824380" cy="11953"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220756</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>524781</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49304</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584845A6-487B-4A7F-AC56-35AB5F56927B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5683624" y="3627060"/>
+          <a:ext cx="1517995" cy="157538"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561601</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349810</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183403</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5B88EA-F916-41FF-9239-9156D102A618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7845425" y="2240804"/>
+          <a:ext cx="2823135" cy="557305"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>194422</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349810</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207049C9-E3E5-4E32-A550-564B998EA978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9906187" y="2240804"/>
+          <a:ext cx="762373" cy="3150347"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601943</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349810</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D6A6BF-67BC-4E13-9972-4FEBC0355662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9706722" y="2240804"/>
+          <a:ext cx="961838" cy="933822"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1EC707-26AA-44D2-9F59-C34C7103199A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="2" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3114303" y="2175810"/>
+          <a:ext cx="889747" cy="833716"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1307</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF5D19A-6695-4A7B-9DF5-263F420A188A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1215278" y="2237816"/>
+          <a:ext cx="2788772" cy="771710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58646</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>147730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535266</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EAE95E-648D-48C9-9120-773ECB5C2E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="6"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4914528" y="1081554"/>
+          <a:ext cx="2904562" cy="2413560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164868</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598421</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B846497-5D76-4967-992C-6A1DFA85DD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="7"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8055677" y="1606503"/>
+          <a:ext cx="433553" cy="1333831"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129054</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31777</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141851</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0242294D-05F3-4F15-A973-50C6AF85A20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="7"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8626848" y="1823944"/>
+          <a:ext cx="1723679" cy="1492907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497915</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0101EDD4-B873-4526-9A7E-77C69B46E255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="5"/>
+          <a:endCxn id="9" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9198019" y="1606503"/>
+          <a:ext cx="1618646" cy="4270236"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513603</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164868</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1E3574-97D3-4693-B471-501B305782E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="6"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6583456" y="1606503"/>
+          <a:ext cx="1472221" cy="2811788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -808,13 +2482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,162 +2525,162 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+      <c r="A2" s="16">
+        <v>45111</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>45110</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>45109</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>45108</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>45107</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>45106</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>45105</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>71</v>
+        <v>45104</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>45103</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45102</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>45102</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45101</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1014,30 +2688,31 @@
         <v>45101</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>45100</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1048,7 +2723,7 @@
         <v>45100</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -1059,10 +2734,10 @@
         <v>45100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -1070,10 +2745,10 @@
         <v>45100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -1081,21 +2756,21 @@
         <v>45100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>45100</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -1103,14 +2778,25 @@
         <v>45099</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G12:G15 C1:D1048576">
+  <conditionalFormatting sqref="C1:D1048576 G13:G16">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -1123,6 +2809,60 @@
       <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB856F-E16D-4194-BAE3-6CAA5BF179F2}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1143,10 +2883,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="D1" t="s">
         <v>74</v>
       </c>
@@ -1179,10 +2919,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1255,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,13 +3050,13 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="1"/>
@@ -1346,72 +3086,830 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F1C4AE-2FEE-4632-8340-936389828A23}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1442,7 +3940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BADC2A-0533-4A25-AC3D-DC8353FFB003}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1478,7 +3976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67949674-8283-46A5-8E57-0FA23CFAF458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1503,7 +4001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19399-4494-48E4-9236-2FC54C1C696D}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1561,58 +4059,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB856F-E16D-4194-BAE3-6CAA5BF179F2}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3F164-2E72-4BFE-9CC0-8672C1AB769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45F66B-C7F7-4113-B756-6ED0DB15189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>- Includes information from TODAY on hydrogen technologies</t>
+  </si>
+  <si>
+    <t>Tried Jenny's suggestions. Responded with email with my error messages and asked her to setup for me. Worked more on contractor's SOW. Think it is now near final. Need to focus shift to the AI model now to make sure it offers more value than ChatGPT.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -427,16 +430,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2482,13 +2479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2524,175 +2521,175 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
-        <v>45111</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>45107</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45106</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>45105</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>45104</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>45103</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45102</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>45102</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45101</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2700,103 +2697,115 @@
         <v>45101</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>45100</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>45100</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>45100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45100</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45099</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G13:G16">
+  <conditionalFormatting sqref="G14:G17 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -2883,10 +2892,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="D1" t="s">
         <v>74</v>
       </c>
@@ -2919,10 +2928,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -3050,7 +3059,7 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="1"/>
@@ -3162,746 +3171,746 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="T11 C3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45F66B-C7F7-4113-B756-6ED0DB15189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242FE45-9A17-4090-A1FF-A6859B4C910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="0" yWindow="4600" windowWidth="19130" windowHeight="6740" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>Tried Jenny's suggestions. Responded with email with my error messages and asked her to setup for me. Worked more on contractor's SOW. Think it is now near final. Need to focus shift to the AI model now to make sure it offers more value than ChatGPT.</t>
+  </si>
+  <si>
+    <t>- Current Knowledge of (Policies, funding announcements, projects, …)</t>
+  </si>
+  <si>
+    <t>-- Data sources: DOE RSS feeds, FOAs, useful public dataset</t>
+  </si>
+  <si>
+    <t>Jenny fixed my Estuary schema. Materialization worked and published! However, first query gave back strange answer</t>
   </si>
 </sst>
 </file>
@@ -2479,13 +2488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2521,24 +2530,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -2547,161 +2556,161 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>45107</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45106</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>45105</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>45104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>45103</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45102</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>45102</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>45101</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2709,30 +2718,31 @@
         <v>45101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>45100</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -2743,7 +2753,7 @@
         <v>45100</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -2754,10 +2764,10 @@
         <v>45100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2765,10 +2775,10 @@
         <v>45100</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2776,21 +2786,21 @@
         <v>45100</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>45100</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2798,14 +2808,25 @@
         <v>45099</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G14:G17 C1:D1048576">
+  <conditionalFormatting sqref="G15:G18 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -3004,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3050,120 +3071,148 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242FE45-9A17-4090-A1FF-A6859B4C910A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC1061-F761-4C3E-8AA3-5DF92E66C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4600" windowWidth="19130" windowHeight="6740" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
-    <sheet name="DailyRoutine" sheetId="9" r:id="rId2"/>
+    <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId2"/>
     <sheet name="Scratch" sheetId="7" r:id="rId3"/>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId4"/>
     <sheet name="ActivityMap" sheetId="10" r:id="rId5"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -290,15 +290,6 @@
     <t>Finish connection to estuary and contractor document</t>
   </si>
   <si>
-    <t>- Read/input text from any PDF, Excel/CSV, URL</t>
-  </si>
-  <si>
-    <t>- Add other documents that complement H2 TEA - (oil &amp; gas focused first:  CCUS, biofuels, RECs/PPAs, incentives, legal, transportation, storage, solar, wind, geothermal, nuclear...)</t>
-  </si>
-  <si>
-    <t>Briefly reserached developerts -&gt; Need to identify at least 5.</t>
-  </si>
-  <si>
     <t>-- Li-ion batteries</t>
   </si>
   <si>
@@ -311,12 +302,6 @@
     <t>-- Verify/vet/re-learn from user-input.</t>
   </si>
   <si>
-    <t>- Build knowledge from all inputs and retain that state through entire interaction with user.</t>
-  </si>
-  <si>
-    <t>- Given string of questions, recommend other relevant prompts.</t>
-  </si>
-  <si>
     <t>-- Better material on policy and credits (45V and 45Q)</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
     <t>-- Award tokens for flagging errors and suggesting new, community-accepted answers.</t>
   </si>
   <si>
-    <t>- Other possible activities in MVP:</t>
-  </si>
-  <si>
     <t>Worked on estuary connection, still no luck. Added to activity map.</t>
   </si>
   <si>
@@ -357,6 +339,42 @@
   </si>
   <si>
     <t>Jenny fixed my Estuary schema. Materialization worked and published! However, first query gave back strange answer</t>
+  </si>
+  <si>
+    <t>- Understand different embedding models and see which ones can be used in Estuary right away.</t>
+  </si>
+  <si>
+    <t>- Look at how to update my capture without ruining what's there. Need to upload more documents.</t>
+  </si>
+  <si>
+    <t>- Have LLM cross reference at least three references.</t>
+  </si>
+  <si>
+    <t>Briefly reserached developers -&gt; Need to identify at least 5.</t>
+  </si>
+  <si>
+    <t>Weekly Goals</t>
+  </si>
+  <si>
+    <t>- Add research from oil &amp; gas industry</t>
+  </si>
+  <si>
+    <t>- Other possible activities in future version:</t>
+  </si>
+  <si>
+    <t>- Given string of questions, questions from reports, recommend other relevant prompts.</t>
+  </si>
+  <si>
+    <t>- Add other documents that complement H2 TEA - (oil &amp; gas focused first:  CCUS, biofuels, RECs/PPAs, incentives, legal/regulation, transportation, storage, solar, wind, geothermal, nuclear...)</t>
+  </si>
+  <si>
+    <t>- Read/input text AND/OR images from any PDF, Excel/CSV, URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Spent time understnaind embedding and vectorDBs. Need to find an alternative to OpenAI's embedding model. Cohere's embedding model is interesting. Multilingual and data-oriented (bring model to data). Weaviate also an interesting alternative vectorDB</t>
   </si>
 </sst>
 </file>
@@ -732,7 +750,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> prompt history</a:t>
+            <a:t> prompt history or commonly asked questions</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -837,16 +855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>413497</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2615</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488203</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>208057</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180042</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282763</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -861,8 +879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448423" y="5045262"/>
-          <a:ext cx="1615516" cy="1484780"/>
+          <a:off x="1713379" y="4731497"/>
+          <a:ext cx="1632325" cy="1484780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -900,7 +918,27 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> relevant graphs/images of input prompt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2488,7 +2526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2530,36 +2568,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>45113</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45112</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2568,161 +2606,161 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>45107</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>45106</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>45104</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>45103</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45102</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>50</v>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>45102</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>45101</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2730,30 +2768,31 @@
         <v>45101</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45100</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -2764,7 +2803,7 @@
         <v>45100</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2775,10 +2814,10 @@
         <v>45100</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2786,10 +2825,10 @@
         <v>45100</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2797,21 +2836,21 @@
         <v>45100</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>45100</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2819,14 +2858,25 @@
         <v>45099</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G18 C1:D1048576">
+  <conditionalFormatting sqref="C1:D1048576 G16:G19">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -2900,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2912,102 +2962,135 @@
     <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" t="s">
+      <c r="B7" s="14"/>
+      <c r="D7" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E8" s="9"/>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3028,7 +3111,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3075,13 +3158,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1"/>
     </row>
@@ -3103,37 +3186,37 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1"/>
     </row>
@@ -3145,25 +3228,25 @@
     </row>
     <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1"/>
     </row>
@@ -3187,27 +3270,27 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3220,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" activeCellId="1" sqref="T11 C3:E4"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC1061-F761-4C3E-8AA3-5DF92E66C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F4081-766E-4535-AB88-28FCD6AFCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="26350" yWindow="830" windowWidth="30640" windowHeight="19630" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
-    <sheet name="DailyNotes" sheetId="6" r:id="rId1"/>
+    <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
     <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId2"/>
-    <sheet name="Scratch" sheetId="7" r:id="rId3"/>
-    <sheet name="MVPFeatures" sheetId="1" r:id="rId4"/>
-    <sheet name="ActivityMap" sheetId="10" r:id="rId5"/>
+    <sheet name="ActivityMap" sheetId="10" r:id="rId3"/>
+    <sheet name="DailyNotes" sheetId="6" r:id="rId4"/>
+    <sheet name="WorkFlow" sheetId="7" r:id="rId5"/>
     <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId6"/>
     <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId7"/>
     <sheet name="AdditionalFeatures" sheetId="3" r:id="rId8"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -59,30 +59,12 @@
     <t>- Set base knowledge of Hydrogen</t>
   </si>
   <si>
-    <t>indexes, embeddings, vector stores</t>
-  </si>
-  <si>
     <t>- Create an agent to respond to similar requests</t>
   </si>
   <si>
-    <t>Relevant LangChain modules/solutions</t>
-  </si>
-  <si>
-    <t>Other Solutions outside langchain</t>
-  </si>
-  <si>
-    <t>Pinecone, Estuary Flow</t>
-  </si>
-  <si>
-    <t>-- Need database of inputs and/or documents</t>
-  </si>
-  <si>
     <t>- Agent-based game theory simulation</t>
   </si>
   <si>
-    <t>Deadline</t>
-  </si>
-  <si>
     <t>https://python.langchain.com/docs/modules/data_connection/</t>
   </si>
   <si>
@@ -269,18 +251,6 @@
     <t>Created a Parquet file from PDF data. Working on setting up the data feed pipelie for embeddings and vectorization in Pinecone and Estuary</t>
   </si>
   <si>
-    <t>Features to work on in order:</t>
-  </si>
-  <si>
-    <t>1) Input data pipeline (Estuary, Pinecone)</t>
-  </si>
-  <si>
-    <t>2) Training data on MORE H2 documents</t>
-  </si>
-  <si>
-    <t>3) Build Web app interface</t>
-  </si>
-  <si>
     <t>Continued working on  input file for Estuary. Created a JSON and got feedback from Jenny on what to do next</t>
   </si>
   <si>
@@ -314,9 +284,6 @@
     <t>Bold: Key activity map activities</t>
   </si>
   <si>
-    <t>-- After each prompt, provide a list of three relevant prompts</t>
-  </si>
-  <si>
     <t>-- Award tokens for flagging errors and suggesting new, community-accepted answers.</t>
   </si>
   <si>
@@ -326,62 +293,140 @@
     <t>Researched how to prevent hallucination and added citations as output. Enhanced activity map.</t>
   </si>
   <si>
-    <t>- Includes information from TODAY on hydrogen technologies</t>
-  </si>
-  <si>
     <t>Tried Jenny's suggestions. Responded with email with my error messages and asked her to setup for me. Worked more on contractor's SOW. Think it is now near final. Need to focus shift to the AI model now to make sure it offers more value than ChatGPT.</t>
   </si>
   <si>
-    <t>- Current Knowledge of (Policies, funding announcements, projects, …)</t>
-  </si>
-  <si>
     <t>-- Data sources: DOE RSS feeds, FOAs, useful public dataset</t>
   </si>
   <si>
     <t>Jenny fixed my Estuary schema. Materialization worked and published! However, first query gave back strange answer</t>
   </si>
   <si>
-    <t>- Understand different embedding models and see which ones can be used in Estuary right away.</t>
-  </si>
-  <si>
-    <t>- Look at how to update my capture without ruining what's there. Need to upload more documents.</t>
-  </si>
-  <si>
-    <t>- Have LLM cross reference at least three references.</t>
-  </si>
-  <si>
     <t>Briefly reserached developers -&gt; Need to identify at least 5.</t>
   </si>
   <si>
-    <t>Weekly Goals</t>
-  </si>
-  <si>
-    <t>- Add research from oil &amp; gas industry</t>
-  </si>
-  <si>
     <t>- Other possible activities in future version:</t>
   </si>
   <si>
-    <t>- Given string of questions, questions from reports, recommend other relevant prompts.</t>
-  </si>
-  <si>
     <t>- Add other documents that complement H2 TEA - (oil &amp; gas focused first:  CCUS, biofuels, RECs/PPAs, incentives, legal/regulation, transportation, storage, solar, wind, geothermal, nuclear...)</t>
   </si>
   <si>
-    <t>- Read/input text AND/OR images from any PDF, Excel/CSV, URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Spent time understnaind embedding and vectorDBs. Need to find an alternative to OpenAI's embedding model. Cohere's embedding model is interesting. Multilingual and data-oriented (bring model to data). Weaviate also an interesting alternative vectorDB</t>
+  </si>
+  <si>
+    <t>Created workflow diagram to understand how information flows, what companies/algorithms/modules do what and how best to leverage the best in class in each</t>
+  </si>
+  <si>
+    <t>Create new version of Flow and try different Embedding API (didn't work). Instead changed the embedding model in Estuary. Tomorrow play with query to see how results look.</t>
+  </si>
+  <si>
+    <t>-- After each prompt, provide a list of three relevant prompts.</t>
+  </si>
+  <si>
+    <t>Mark to work on next</t>
+  </si>
+  <si>
+    <t>-- Which LLM brings back images from reports? Look at Azure Cognitive Services</t>
+  </si>
+  <si>
+    <t>Assignment / Deadline</t>
+  </si>
+  <si>
+    <t>-- Need database of inputs and/or documents (oil &amp; gas focused first:  CCUS, biofuels, RECs/PPAs, incentives, legal/regulation, transportation, storage, solar, wind, geothermal, nuclear…)</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Knowledge of (Policies, funding announcements, projects, …)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Given string of questions, questions from reports, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recommend</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> other relevant prompts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Read/input text AND/OR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from any PDF, Excel/CSV, URL</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +447,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -458,9 +527,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,16 +588,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485589</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>216648</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>130736</xdr:rowOff>
+      <xdr:rowOff>130735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>280149</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>121398</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298823</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -528,8 +612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2306545" y="691030"/>
-          <a:ext cx="1615516" cy="1484780"/>
+          <a:off x="2667001" y="691029"/>
+          <a:ext cx="1919940" cy="1580029"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -540,7 +624,7 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="38100">
+        <a:ln w="31750">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
           </a:solidFill>
@@ -563,10 +647,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -581,7 +665,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> features with doman-specific knowledge: hydrogen energy tech</a:t>
+            <a:t> features with accurate, doman-specific knowledge: hydrogen energy tech</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -596,15 +680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>535266</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>266325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>329827</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143062</xdr:rowOff>
+      <xdr:colOff>60886</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -619,8 +703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7819090" y="339164"/>
-          <a:ext cx="1615516" cy="1484780"/>
+          <a:off x="7617384" y="720164"/>
+          <a:ext cx="1632326" cy="1484780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -631,7 +715,7 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="38100">
+        <a:ln w="63500">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
           </a:solidFill>
@@ -654,12 +738,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -709,7 +793,7 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="38100">
+        <a:ln w="31750">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
           </a:solidFill>
@@ -732,10 +816,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -764,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>149037</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537506</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>550583</xdr:colOff>
+      <xdr:colOff>455705</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>186392</xdr:rowOff>
+      <xdr:rowOff>149039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -788,8 +872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9860802" y="756024"/>
-          <a:ext cx="1615516" cy="1484780"/>
+          <a:off x="9726330" y="672352"/>
+          <a:ext cx="1755963" cy="1531099"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -800,7 +884,7 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="38100">
+        <a:ln w="50800">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
           </a:solidFill>
@@ -823,12 +907,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -836,14 +920,14 @@
             <a:t>Provides citations of results.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
             <a:t> Allows community to challenge them to improve</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx2"/>
             </a:solidFill>
@@ -855,16 +939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>488203</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>62379</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>282763</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>53042</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -879,7 +963,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1713379" y="4731497"/>
+          <a:off x="5388909" y="749674"/>
           <a:ext cx="1632325" cy="1484780"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -891,7 +975,7 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="38100">
+        <a:ln w="53975">
           <a:solidFill>
             <a:srgbClr val="0070C0"/>
           </a:solidFill>
@@ -914,12 +998,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -927,14 +1011,14 @@
             <a:t>Return</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> relevant graphs/images of input prompt</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -946,16 +1030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>448234</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9338</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59764</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>46690</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -970,8 +1054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="448234" y="2997573"/>
-          <a:ext cx="1820957" cy="971176"/>
+          <a:off x="672352" y="3991161"/>
+          <a:ext cx="1837766" cy="971176"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1005,10 +1089,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1024,16 +1108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>497914</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161739</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482973</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>497915</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>12327</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1048,8 +1132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8995708" y="5391151"/>
-          <a:ext cx="1820957" cy="971176"/>
+          <a:off x="4158502" y="3157442"/>
+          <a:ext cx="2213909" cy="1324909"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1083,17 +1167,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Incorporates knowledge from oil &amp; gas industry</a:t>
+            <a:t>Incorporates knowledge from oil &amp; gas industry and related tangential industries</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1132,9 +1216,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -1169,16 +1251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>258108</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183403</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>138578</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>258109</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33991</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138578</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1193,8 +1275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934946" y="2798109"/>
-          <a:ext cx="1820957" cy="971176"/>
+          <a:off x="7489637" y="3343462"/>
+          <a:ext cx="1837765" cy="971176"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1228,10 +1310,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1247,16 +1329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186391</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507627</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>36978</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>507629</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1271,8 +1353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8796243" y="3174626"/>
-          <a:ext cx="1820957" cy="971176"/>
+          <a:off x="9696451" y="5333628"/>
+          <a:ext cx="1837766" cy="971176"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1306,10 +1388,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1338,16 +1420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>534894</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49304</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>512483</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>513603</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9337</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>491192</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1362,8 +1444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4783791" y="3784598"/>
-          <a:ext cx="1799665" cy="1267386"/>
+          <a:off x="9701307" y="3172011"/>
+          <a:ext cx="1816473" cy="1267386"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1397,10 +1479,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1430,15 +1512,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>58645</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21291</xdr:rowOff>
+      <xdr:colOff>178173</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>58646</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>58643</xdr:rowOff>
+      <xdr:colOff>178174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1453,8 +1535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3093571" y="3009526"/>
-          <a:ext cx="1820957" cy="971176"/>
+          <a:off x="3241114" y="5370232"/>
+          <a:ext cx="1837766" cy="971176"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1488,10 +1570,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1507,35 +1589,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121396</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>316752</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58645</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316753</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Oval 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121AC430-F85E-4129-8564-BEBA5785EAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6442634" y="5361266"/>
+          <a:ext cx="1837766" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>More tokens</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> allowed and  cheaper than ChatGPT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190312</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195544</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698BD449-FC74-67A2-F416-C6E18B2060DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD31277-B444-4159-8EEC-FD3E6F3358E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="6"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="5" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2269191" y="3483161"/>
-          <a:ext cx="824380" cy="11953"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10604312" y="2203451"/>
+          <a:ext cx="5232" cy="968560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1563,35 +1736,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220756</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>78531</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195544</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524781</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49304</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201334</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584845A6-487B-4A7F-AC56-35AB5F56927B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BA1FBE-D0F6-4FC4-9E52-52A9F7FBD47C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="14" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5683624" y="3627060"/>
-          <a:ext cx="1517995" cy="157538"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10609544" y="4439397"/>
+          <a:ext cx="5790" cy="894231"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1619,23 +1792,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561601</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444873</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>186392</xdr:rowOff>
+      <xdr:rowOff>149039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>349810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>183403</xdr:rowOff>
+      <xdr:colOff>190312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5B88EA-F916-41FF-9239-9156D102A618}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9645C7D-86A9-4378-BA2A-F94FE354C68F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,8 +1819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7845425" y="2240804"/>
-          <a:ext cx="2823135" cy="557305"/>
+          <a:off x="8408520" y="2203451"/>
+          <a:ext cx="2195792" cy="1140011"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1675,35 +1848,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>194422</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>186392</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444873</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349810</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161739</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507627</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29510</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207049C9-E3E5-4E32-A550-564B998EA978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031EF761-D0A4-4E29-8242-707652A0C9F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="5" idx="4"/>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="12" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9906187" y="2240804"/>
-          <a:ext cx="762373" cy="3150347"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8408520" y="4314638"/>
+          <a:ext cx="1287931" cy="1504578"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1732,34 +1905,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>601943</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>186392</xdr:rowOff>
+      <xdr:colOff>138578</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>349810</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186391</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>512483</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D6A6BF-67BC-4E13-9972-4FEBC0355662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B7DEF7-41A6-45D0-9365-FCFF813B8519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="0"/>
-          <a:endCxn id="5" idx="4"/>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="12" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9706722" y="2240804"/>
-          <a:ext cx="961838" cy="933822"/>
+        <a:xfrm flipH="1">
+          <a:off x="9327402" y="3805704"/>
+          <a:ext cx="373905" cy="23346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1787,91 +1960,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>79377</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444873</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>121398</xdr:rowOff>
+      <xdr:rowOff>150532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>362138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21291</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1EC707-26AA-44D2-9F59-C34C7103199A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA56D66-DFF0-448D-B015-3F928A10C14C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="2" idx="4"/>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="3" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3114303" y="2175810"/>
-          <a:ext cx="889747" cy="833716"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1307</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>183404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>362138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>21291</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF5D19A-6695-4A7B-9DF5-263F420A188A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="4" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1215278" y="2237816"/>
-          <a:ext cx="2788772" cy="771710"/>
+        <a:xfrm flipV="1">
+          <a:off x="8408520" y="2204944"/>
+          <a:ext cx="25027" cy="1138518"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1900,34 +2017,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>58646</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>147730</xdr:rowOff>
+      <xdr:colOff>364751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>535266</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EAE95E-648D-48C9-9120-773ECB5C2E96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD072D75-B9E9-4935-B209-0449EF560180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="6"/>
-          <a:endCxn id="3" idx="2"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="3" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4914528" y="1081554"/>
-          <a:ext cx="2904562" cy="2413560"/>
+          <a:off x="5265457" y="2204944"/>
+          <a:ext cx="3168090" cy="952498"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1955,35 +2072,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>164868</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112385</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>598421</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138863</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B846497-5D76-4967-992C-6A1DFA85DD5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631DB721-261F-4D15-9A75-FC021987289F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="7"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="5" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8055677" y="1606503"/>
-          <a:ext cx="433553" cy="1333831"/>
+        <a:xfrm flipV="1">
+          <a:off x="5265457" y="2203451"/>
+          <a:ext cx="5338855" cy="953991"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2011,35 +2128,203 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129054</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31777</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>141851</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>79190</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0242294D-05F3-4F15-A973-50C6AF85A20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC48F3EE-2F0C-4F8A-922F-F3810572B39F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="7"/>
-          <a:endCxn id="3" idx="4"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="6" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8626848" y="1823944"/>
-          <a:ext cx="1723679" cy="1492907"/>
+        <a:xfrm flipV="1">
+          <a:off x="5265457" y="2234454"/>
+          <a:ext cx="939615" cy="922988"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521627</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>87315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585887</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31239E18-4FC0-4DF2-9037-6B2006C9E511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="7"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4809745" y="5503491"/>
+          <a:ext cx="1902024" cy="8966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444873</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34EB123-3253-4DBA-8F3E-7BC599669988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="12" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4159997" y="4314638"/>
+          <a:ext cx="4248523" cy="1055594"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>521627</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B877F1-835C-44DD-AB1C-2AC837518A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="15" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4809745" y="6190217"/>
+          <a:ext cx="1902024" cy="8966"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2068,34 +2353,163 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112385</xdr:rowOff>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D3331A-C120-AC26-AE80-2335F9A887C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9435353" y="2958353"/>
+          <a:ext cx="2241176" cy="3690471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>497915</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87033</xdr:rowOff>
+      <xdr:colOff>567764</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041A9A12-AF89-58F0-10C4-4BB4E22BBA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10981764" y="6402294"/>
+          <a:ext cx="1957294" cy="896471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>uncertain</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564030</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0101EDD4-B873-4526-9A7E-77C69B46E255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467D64CF-CE50-4C6E-B79B-D54D10FEDB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="5"/>
-          <a:endCxn id="9" idx="6"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="2" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9198019" y="1606503"/>
-          <a:ext cx="1618646" cy="4270236"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3626971" y="2271058"/>
+          <a:ext cx="1638486" cy="886384"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2124,34 +2538,146 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>513603</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112385</xdr:rowOff>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>164868</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>122703</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>138578</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93756</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1E3574-97D3-4693-B471-501B305782E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC46B88B-30CF-4DBA-9E4B-C04DD0C1C922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="6"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="9" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6372411" y="3819897"/>
+          <a:ext cx="1117226" cy="9153"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>611095</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Arrow Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F077E5-E757-4090-869C-E70C92F10771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1223683" y="2237816"/>
+          <a:ext cx="2936314" cy="3132416"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484468</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Arrow Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A43B625-7418-4E31-A5A1-8A5932EC7988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="9" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6583456" y="1606503"/>
-          <a:ext cx="1472221" cy="2811788"/>
+          <a:off x="4159997" y="4482351"/>
+          <a:ext cx="1105460" cy="887881"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2181,6 +2707,1665 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D52EC97-682E-4A35-A860-2370C528B1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003550" y="882650"/>
+          <a:ext cx="1581150" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[Estuary Flow,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cohere,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hugging Face, OpenAI, many more...]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8468C46-0C8D-4263-ADE1-DD2FC4DC8167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="2019300"/>
+          <a:ext cx="965200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FB272F-C23E-6E1D-770B-15DDD2580180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832100" y="2019300"/>
+          <a:ext cx="1822450" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>VectorDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C55FCA-E50D-4039-AC6E-DE137D514382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2813050" y="374650"/>
+          <a:ext cx="1841500" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Embedding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFA3C11-40BE-90F4-05BE-891E783DAEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="215900"/>
+          <a:ext cx="1028700" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Raw Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDD627D-334B-4942-A319-6C6293332ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5549900" y="349250"/>
+          <a:ext cx="1111250" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LLM Application</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A94B7E-C099-4C95-87B5-D3DD31CD8EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7899400" y="203200"/>
+          <a:ext cx="1028700" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6AFCE3-B0B6-85BC-ACF5-4F02C5DC0B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="603250"/>
+          <a:ext cx="1295400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ED4E9D-D59A-45D4-A218-C6375F1BAC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6826250" y="622300"/>
+          <a:ext cx="965200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E91356-9920-9D3F-1189-EEB010F9DBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6978650" y="393700"/>
+          <a:ext cx="1282700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>User Prompt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73509049-AC69-4371-9407-A2C59EF955C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="260350"/>
+          <a:ext cx="1746250" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Raw data to be embedded</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69AF3E74-7852-4806-9170-28765BF8EFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921000" y="857250"/>
+          <a:ext cx="19050" cy="996950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089F961A-EDA6-43FA-8B20-4454BCCF5C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="1403350"/>
+          <a:ext cx="1327150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Embedded data to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> be vectorized</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B676965C-C8AA-45EE-8062-A5AD14C044E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4705350" y="2051050"/>
+          <a:ext cx="781050" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD75B14-4EA3-4E29-83BD-EF93C4DB9502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4679950" y="539750"/>
+          <a:ext cx="774700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45553EA-9A72-446D-81D3-90F17206A1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692650" y="215900"/>
+          <a:ext cx="965200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Requests</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97C41C1-7D01-4FAE-B15C-78A2B7AF4DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4470400" y="882650"/>
+          <a:ext cx="12700" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11358E9-930D-46BA-8DD0-EAE21DE52DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="958850"/>
+          <a:ext cx="965200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Query</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D5F999-B3E4-4337-AF11-CF8B6CE5E1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6889750" y="914400"/>
+          <a:ext cx="781050" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9472A5-8CE7-4E9E-A204-6034CB677BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="914400"/>
+          <a:ext cx="965200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1205DC61-03ED-4C9C-A839-B9E05050788F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="2286000"/>
+          <a:ext cx="2286000" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[LangChain (framework),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ChatGPT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cohere,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>many more...]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C657450-6BE8-4E3E-AFC1-F96D7DA9ED49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2736850" y="2819400"/>
+          <a:ext cx="1917700" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[Pinecone, Chroma, Deep lake,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FAISS, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>many more....</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D112576-9BE2-4CE3-85E3-9C34FB1B10BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1174750"/>
+          <a:ext cx="1581150" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[Google Cloud Storage]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71451CC2-45B7-4D9E-BB2C-0754DFC814FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="615950"/>
+          <a:ext cx="1041400" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PyPDF load/split into JSON</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7CF3B-0014-4143-AE23-606DE82211E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="1860550"/>
+          <a:ext cx="2273300" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4199D456-28A0-57A0-33DD-0117DA530A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2482850" y="2451100"/>
+          <a:ext cx="876300" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Retriever</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2525,372 +4710,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45114</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45113</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>45111</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B4" s="17">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45110</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45109</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45108</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45107</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45106</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G16:G19">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2909,37 +4898,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2950,10 +4939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2962,132 +4951,86 @@
     <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="D7" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3095,216 +5038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DD1B2-F515-4063-A283-1EBFB574D93C}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="87.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4050,6 +5788,848 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45116</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45110</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:D1048576 G18:G21">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F1C4AE-2FEE-4632-8340-936389828A23}">
   <dimension ref="A1:B2"/>
@@ -4065,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4073,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4093,22 +6673,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4129,12 +6709,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4154,47 +6734,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F4081-766E-4535-AB88-28FCD6AFCF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398377B5-5721-40C4-A807-1548B2A6FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26350" yWindow="830" windowWidth="30640" windowHeight="19630" tabRatio="877" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -541,10 +541,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4111,8 +4111,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4128,7 +4128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1174750"/>
-          <a:ext cx="1581150" cy="914400"/>
+          <a:ext cx="1581150" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4158,7 +4158,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>[Google Cloud Storage]</a:t>
+            <a:t>[Google Cloud Storage: input.json]</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4356,6 +4356,265 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Retriever</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD5CF89-9CA5-4DD4-8DD8-505BB3A776D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="1733550"/>
+          <a:ext cx="1174750" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Knowledge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Update</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CB0C51-FA2A-4748-AC6F-D5D5C1E947EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="298450" y="2838450"/>
+          <a:ext cx="1581150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[Google Docs]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE492CCA-F453-43F9-9C96-BD3902D6DACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="260350" y="3606800"/>
+          <a:ext cx="1028700" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Raw Data Web Scraper</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257037</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9387</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC145E90-E656-4A3A-B70B-B8C9C624BF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257037" y="4522580"/>
+          <a:ext cx="1574524" cy="295413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[Python]</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4716,7 +4975,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4782,13 +5041,13 @@
       <c r="A8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
@@ -4941,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4952,10 +5211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -4974,10 +5233,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -6184,10 +6443,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="46" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6624,6 +6883,606 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398377B5-5721-40C4-A807-1548B2A6FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477488D-01D1-4E62-AB0E-24650D93CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
-    <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId2"/>
-    <sheet name="ActivityMap" sheetId="10" r:id="rId3"/>
-    <sheet name="DailyNotes" sheetId="6" r:id="rId4"/>
-    <sheet name="WorkFlow" sheetId="7" r:id="rId5"/>
-    <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId6"/>
-    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId7"/>
-    <sheet name="AdditionalFeatures" sheetId="3" r:id="rId8"/>
-    <sheet name="UseCases" sheetId="4" r:id="rId9"/>
-    <sheet name="Monetization" sheetId="5" r:id="rId10"/>
+    <sheet name="Sources" sheetId="11" r:id="rId2"/>
+    <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId3"/>
+    <sheet name="ActivityMap" sheetId="10" r:id="rId4"/>
+    <sheet name="DailyNotes" sheetId="6" r:id="rId5"/>
+    <sheet name="WorkFlow" sheetId="7" r:id="rId6"/>
+    <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId7"/>
+    <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId8"/>
+    <sheet name="AdditionalFeatures" sheetId="3" r:id="rId9"/>
+    <sheet name="UseCases" sheetId="4" r:id="rId10"/>
+    <sheet name="Monetization" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -269,9 +270,6 @@
     <t>-- Refine knowledge through user feedback which is in the form of them providing PDFs or URLs</t>
   </si>
   <si>
-    <t>-- Verify/vet/re-learn from user-input.</t>
-  </si>
-  <si>
     <t>-- Better material on policy and credits (45V and 45Q)</t>
   </si>
   <si>
@@ -282,9 +280,6 @@
   </si>
   <si>
     <t>Bold: Key activity map activities</t>
-  </si>
-  <si>
-    <t>-- Award tokens for flagging errors and suggesting new, community-accepted answers.</t>
   </si>
   <si>
     <t>Worked on estuary connection, still no luck. Added to activity map.</t>
@@ -420,6 +415,63 @@
       </rPr>
       <t xml:space="preserve"> from any PDF, Excel/CSV, URL</t>
     </r>
+  </si>
+  <si>
+    <t>Updated activity map, MVP features. Spoke with Kamal about product. Mentioned being able to introduce me to developers in US or in India</t>
+  </si>
+  <si>
+    <t>Talked with John C. Got some great ideas. Need a team of 3 founders. Need to better define the problem, the solution, customer, addressable market size</t>
+  </si>
+  <si>
+    <t>-- Verify/vet/re-learn from user-input, making it a HIGHLY trustworthy source</t>
+  </si>
+  <si>
+    <t>-- Award tokens (Karma) for flagging errors and suggesting new, community-accepted answers. In return, they will be firs to be invited to test new features.</t>
+  </si>
+  <si>
+    <t>- Create X number of slides in presentation or document, with images and text from reports including their references.</t>
+  </si>
+  <si>
+    <t>-- TO DO: Add more knowledge, make list of agencies, consultants, sources</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>ANL</t>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>CARB</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>LinkedIn - H2 forums</t>
+  </si>
+  <si>
+    <t>Reddit - H2 news</t>
+  </si>
+  <si>
+    <t>Added more to the business plan. Updated H2 knowledge database now with 200 files, trying to get into Pinecone but seeing Materialization error. Bought tickets to Pinecone AI summit. Better meet some folks, find a Dev co-founder or talk to Jamie next.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -525,7 +577,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4973,10 +5024,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4992,148 +5043,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>45122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="16">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="17">
-        <v>45122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
+      <c r="A18" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5143,6 +5205,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19399-4494-48E4-9236-2FC54C1C696D}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB856F-E16D-4194-BAE3-6CAA5BF179F2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -5197,10 +5319,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DD849F-3554-454C-B194-4B82089ABFD8}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5211,10 +5486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -5233,10 +5508,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -5296,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -5307,739 +5582,739 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6047,11 +6322,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6091,207 +6366,204 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45116</v>
+        <v>45119</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45115</v>
+        <v>45118</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45113</v>
+        <v>45116</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45112</v>
+        <v>45115</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45111</v>
+        <v>45114</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45110</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45109</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45106</v>
+        <v>45109</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45106</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>45105</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4">
-        <v>45110</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>45104</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>45103</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -6299,83 +6571,89 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>45101</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45100</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>37</v>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -6383,7 +6661,7 @@
         <v>45100</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -6394,36 +6672,69 @@
         <v>45100</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>26</v>
+        <v>45100</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G18:G21">
+  <conditionalFormatting sqref="G21:G24 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -6441,7 +6752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -6452,1036 +6763,1036 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7489,7 +7800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F1C4AE-2FEE-4632-8340-936389828A23}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7520,7 +7831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BADC2A-0533-4A25-AC3D-DC8353FFB003}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -7556,7 +7867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67949674-8283-46A5-8E57-0FA23CFAF458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -7579,64 +7890,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE19399-4494-48E4-9236-2FC54C1C696D}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477488D-01D1-4E62-AB0E-24650D93CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FD2E3-28BD-44E4-966E-85882FE2A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Added more to the business plan. Updated H2 knowledge database now with 200 files, trying to get into Pinecone but seeing Materialization error. Bought tickets to Pinecone AI summit. Better meet some folks, find a Dev co-founder or talk to Jamie next.</t>
+  </si>
+  <si>
+    <t>Attended AITransformationSummit by Pinecone/MS in San Fran. Really useful. Good to know I'm roughly even with others developing tools right now.</t>
+  </si>
+  <si>
+    <t>Fixed Estuary/Pinecone connection and vectorDB, however, I think the vectoDB is overwhelming OpenAI limits. May have to upgrade. Still need to figure out how to set primary key. Updated business plan. Read ProcessGPT paper</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -593,6 +608,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2752,6 +2768,1175 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>507378</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477495</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38E4311-DD80-A970-7114-CCF62BC5604C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962711" y="7482417"/>
+          <a:ext cx="4266951" cy="262714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hydrogen TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>493558</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34E74C8-B2F0-430D-8001-EF2BF3800AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948891" y="8182162"/>
+          <a:ext cx="895971" cy="280644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>production</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254995</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61010</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87FAE8F-A247-40E3-B8A5-96213364E9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937995" y="8200216"/>
+          <a:ext cx="1033682" cy="268691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>transmission</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109819</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>529666</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39860BEB-7A00-4A05-9C3D-4463B34E4337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248152" y="8185151"/>
+          <a:ext cx="1033681" cy="268691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>end uses</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>72340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>493433</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A271FF2-6F94-4533-87CC-F50B8E24EA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983007" y="7831420"/>
+          <a:ext cx="1034926" cy="268691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>carriers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508499</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176803</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CB0FA2-45D3-490E-BBDC-1C7B6921D264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2963832" y="7806142"/>
+          <a:ext cx="895971" cy="280644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>policy</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>269314</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551452</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAC1763-8AE3-462D-B10B-12BD75FBDA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952314" y="7820959"/>
+          <a:ext cx="895971" cy="280644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>regulation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125381</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>407518</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>20169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148AD81E-9B72-4D52-8FB3-A989DD563F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263714" y="7835775"/>
+          <a:ext cx="895971" cy="280644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161613</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581462</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46A4BAF-3DCA-4A1C-A1E4-FCE7159893A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072280" y="8184030"/>
+          <a:ext cx="1033682" cy="268691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>storage</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>405901</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1D84F4-2AEE-49C2-A673-0F9738081133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="405901" y="9892925"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Solar TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>399551</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F496E4D2-4DD9-434A-A7AB-800B21490413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="399551" y="9230408"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Wind TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>435533</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93132</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>93131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30840B86-0810-47AC-BC86-47FCAAE0F9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="435533" y="8546724"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nuclear TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397433</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55032</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E987F09B-970F-41D2-86A8-E7BD8478A227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="397433" y="8011207"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Natural</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Gas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D5B8CF-0764-4031-B3A4-639D5CA1D962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380500" y="7443941"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Hydro TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>395317</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1FB733-CC47-4BC2-AE39-0EAAE1C325CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="395317" y="6876674"/>
+          <a:ext cx="1499099" cy="362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Biomass TEA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166718</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC911C21-4C39-40C4-837B-AAF858C4A913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8146551" y="6700991"/>
+          <a:ext cx="2098116" cy="368676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Natural Gas Infrastructure</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>181535</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>143557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081228D-6A4C-4C17-81AC-0D55E1F28548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8161368" y="7160307"/>
+          <a:ext cx="2098116" cy="368676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CCU/CCUS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175185</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431801</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE3E974-88D3-4637-8D4D-D1E593C0C5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8155018" y="7651374"/>
+          <a:ext cx="2098116" cy="368676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Electric Grid</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3155,69 +4340,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>LLM Application</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A94B7E-C099-4C95-87B5-D3DD31CD8EC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7899400" y="203200"/>
-          <a:ext cx="1028700" cy="939800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4672,6 +5794,123 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>491924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185170</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22" descr="User with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C1D0BE-1EA0-D9EF-07FC-6B40DEFF2D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7818847" y="382019"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55196</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410796</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDAA7A5-66F5-44FE-9411-7F9E709DDA58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7992696" y="1219689"/>
+          <a:ext cx="966177" cy="359996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5486,10 +6725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -5508,10 +6747,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -5573,10 +6812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6316,6 +7555,510 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6324,13 +8067,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6368,34 +8111,34 @@
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -6404,46 +8147,46 @@
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45115</v>
+        <v>45117</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -6452,227 +8195,229 @@
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>45107</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>45106</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>45105</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>45104</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45110</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
+      <c r="D21" s="4">
+        <v>45110</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>45101</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45101</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D24" s="9"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>45100</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
@@ -6683,10 +8428,10 @@
         <v>45100</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -6694,7 +8439,7 @@
         <v>45100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -6705,7 +8450,7 @@
         <v>45100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -6713,10 +8458,10 @@
     </row>
     <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -6724,17 +8469,39 @@
     </row>
     <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>45099</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G21:G24 C1:D1048576">
+  <conditionalFormatting sqref="G23:G26 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -6756,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView zoomScale="46" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView zoomScale="52" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FD2E3-28BD-44E4-966E-85882FE2A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F965F-C38C-4A17-8630-8C60D7DC32FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -480,7 +480,7 @@
     <t>Fixed Estuary/Pinecone connection and vectorDB, however, I think the vectoDB is overwhelming OpenAI limits. May have to upgrade. Still need to figure out how to set primary key. Updated business plan. Read ProcessGPT paper</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Remade connection to Pinecone in the script. Not sure GPT is giving back proper results so trying to make sure the LLM is in fact pulling from the knowledge base in Pinecone's vectorDB. Next step is to verify this and then start to break down accuracy of questions</t>
   </si>
 </sst>
 </file>
@@ -8067,13 +8067,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8111,46 +8111,46 @@
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>45120</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45119</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -8159,10 +8159,10 @@
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -8171,10 +8171,10 @@
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -8183,58 +8183,58 @@
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>45114</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>45113</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -8243,22 +8243,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>33</v>
@@ -8267,168 +8267,169 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>45107</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>45106</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>65</v>
+        <v>45104</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>45103</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45102</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>44</v>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>45102</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45101</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
+      <c r="D25" s="9"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
         <v>45101</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>45101</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>45100</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>28</v>
+      <c r="B28" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -8439,7 +8440,7 @@
         <v>45100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -8450,10 +8451,10 @@
         <v>45100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8461,10 +8462,10 @@
         <v>45100</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8472,21 +8473,21 @@
         <v>45100</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8494,14 +8495,25 @@
         <v>45099</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G23:G26 C1:D1048576">
+  <conditionalFormatting sqref="G24:G27 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F965F-C38C-4A17-8630-8C60D7DC32FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45114052-97D3-4AFB-B5EF-664AC1A30D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Remade connection to Pinecone in the script. Not sure GPT is giving back proper results so trying to make sure the LLM is in fact pulling from the knowledge base in Pinecone's vectorDB. Next step is to verify this and then start to break down accuracy of questions</t>
+  </si>
+  <si>
+    <t>Created pitch deck, updated business plan, thought more about Year 2.</t>
   </si>
 </sst>
 </file>
@@ -655,6 +658,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D3331A-C120-AC26-AE80-2335F9A887C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9435353" y="2958353"/>
+          <a:ext cx="2241176" cy="3690471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>216648</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1489,14 +1557,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>512483</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>491192</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>143809</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1511,8 +1579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9701307" y="3172011"/>
-          <a:ext cx="1816473" cy="1267386"/>
+          <a:off x="9684705" y="3100072"/>
+          <a:ext cx="1813154" cy="1350808"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1556,7 +1624,7 @@
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Users awarded larger amount of tokens once three</a:t>
+            <a:t>Users awarded larger amount of tokens (or karma) once three</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1748,15 +1816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>190312</xdr:colOff>
+      <xdr:colOff>190865</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>149039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>195544</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:colOff>196097</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1774,8 +1842,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10604312" y="2203451"/>
-          <a:ext cx="5232" cy="968560"/>
+          <a:off x="10586050" y="2153993"/>
+          <a:ext cx="5232" cy="946079"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1804,13 +1872,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>195544</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>143809</xdr:rowOff>
+      <xdr:colOff>196097</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>201334</xdr:colOff>
+      <xdr:colOff>201888</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104216</xdr:rowOff>
     </xdr:to>
@@ -1830,8 +1898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10609544" y="4439397"/>
-          <a:ext cx="5790" cy="894231"/>
+          <a:off x="10591282" y="4450880"/>
+          <a:ext cx="5791" cy="756855"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1974,13 +2042,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>138578</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>70410</xdr:rowOff>
+      <xdr:rowOff>93757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>512483</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>93756</xdr:rowOff>
+      <xdr:rowOff>130106</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1997,9 +2065,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9327402" y="3805704"/>
-          <a:ext cx="373905" cy="23346"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9310800" y="3739127"/>
+          <a:ext cx="373905" cy="36349"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2415,71 +2483,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>37353</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Rectangle 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D3331A-C120-AC26-AE80-2335F9A887C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9435353" y="2958353"/>
-          <a:ext cx="2241176" cy="3690471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="20000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2965,13 +2968,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>109819</xdr:colOff>
+      <xdr:colOff>86300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:rowOff>170510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>529666</xdr:colOff>
+      <xdr:colOff>506147</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>177675</xdr:rowOff>
     </xdr:to>
@@ -2988,8 +2991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248152" y="8185151"/>
-          <a:ext cx="1033681" cy="268691"/>
+          <a:off x="6201115" y="8372593"/>
+          <a:ext cx="1031328" cy="189434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3028,13 +3031,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>72340</xdr:colOff>
+      <xdr:colOff>142896</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>493433</xdr:colOff>
+      <xdr:colOff>563989</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>3861</xdr:rowOff>
     </xdr:to>
@@ -3051,8 +3054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4983007" y="7831420"/>
-          <a:ext cx="1034926" cy="268691"/>
+          <a:off x="5034748" y="7932549"/>
+          <a:ext cx="1032574" cy="273395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3217,15 +3220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>125381</xdr:colOff>
+      <xdr:colOff>61881</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>99358</xdr:rowOff>
+      <xdr:rowOff>64676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>407518</xdr:colOff>
+      <xdr:colOff>493889</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>20169</xdr:rowOff>
+      <xdr:rowOff>135232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3240,8 +3243,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6263714" y="7835775"/>
-          <a:ext cx="895971" cy="280644"/>
+          <a:off x="6176696" y="7902222"/>
+          <a:ext cx="1043489" cy="435093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3268,6 +3271,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>integrated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> systems</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3472,15 +3483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>435533</xdr:colOff>
+      <xdr:colOff>417894</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>90641</xdr:rowOff>
+      <xdr:rowOff>131799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>93132</xdr:colOff>
+      <xdr:colOff>75493</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>93131</xdr:rowOff>
+      <xdr:rowOff>134289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3495,8 +3506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="435533" y="8546724"/>
-          <a:ext cx="1499099" cy="362324"/>
+          <a:off x="417894" y="8698419"/>
+          <a:ext cx="1492043" cy="367027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6814,8 +6825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8067,13 +8078,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8109,60 +8120,60 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>45120</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>45119</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -8171,10 +8182,10 @@
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -8183,10 +8194,10 @@
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -8195,58 +8206,58 @@
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>45114</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>45113</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -8255,22 +8266,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>33</v>
@@ -8279,168 +8290,169 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>45107</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>45106</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>45104</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
+        <v>45103</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>45102</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>45102</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45101</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+      <c r="D26" s="9"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <v>45101</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>45101</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>45100</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>28</v>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -8451,7 +8463,7 @@
         <v>45100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8462,10 +8474,10 @@
         <v>45100</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8473,10 +8485,10 @@
         <v>45100</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8484,21 +8496,21 @@
         <v>45100</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8506,14 +8518,25 @@
         <v>45099</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G24:G27 C1:D1048576">
+  <conditionalFormatting sqref="G25:G28 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45114052-97D3-4AFB-B5EF-664AC1A30D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2AA564-32BB-4DD2-B653-D851FAF952D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11260" tabRatio="877" activeTab="4" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="33790" yWindow="11570" windowWidth="21970" windowHeight="9270" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
-    <sheet name="Sources" sheetId="11" r:id="rId2"/>
-    <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId3"/>
-    <sheet name="ActivityMap" sheetId="10" r:id="rId4"/>
-    <sheet name="DailyNotes" sheetId="6" r:id="rId5"/>
+    <sheet name="DailyNotes" sheetId="6" r:id="rId2"/>
+    <sheet name="Sources" sheetId="11" r:id="rId3"/>
+    <sheet name="DailyRoutineWeeklyGoal" sheetId="9" r:id="rId4"/>
+    <sheet name="ActivityMap" sheetId="10" r:id="rId5"/>
     <sheet name="WorkFlow" sheetId="7" r:id="rId6"/>
     <sheet name="QuestionsFollowUp" sheetId="8" r:id="rId7"/>
     <sheet name="HelpfulDocumentation" sheetId="2" r:id="rId8"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -484,6 +484,35 @@
   </si>
   <si>
     <t>Created pitch deck, updated business plan, thought more about Year 2.</t>
+  </si>
+  <si>
+    <t>- Recommend follow-up prompts</t>
+  </si>
+  <si>
+    <r>
+      <t>Played around with Claude. Very good so this is the new bar. Learned more about SBERT and sentence transformers. These are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> likely the better way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to go than with embeddings.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6569,6 +6598,496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45122</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45116</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45110</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G26:G29 C1:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DD849F-3554-454C-B194-4B82089ABFD8}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -6721,7 +7240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06015F9D-4AF7-453E-80C4-3DF1FC0EE8F4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -6821,7 +7340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S59"/>
   <sheetViews>
@@ -8073,484 +8592,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45123</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45122</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45121</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>45120</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45119</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45118</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45116</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45115</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45114</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45113</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45111</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45110</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>45109</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>45108</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>45107</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>45106</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G25:G28 C1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9637,7 +9678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BADC2A-0533-4A25-AC3D-DC8353FFB003}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -9671,10 +9712,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67949674-8283-46A5-8E57-0FA23CFAF458}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9689,6 +9730,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2AA564-32BB-4DD2-B653-D851FAF952D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4075A2-2DE0-4B79-AC94-5342A9ED48DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33790" yWindow="11570" windowWidth="21970" windowHeight="9270" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -513,6 +513,9 @@
       </rPr>
       <t>to go than with embeddings.</t>
     </r>
+  </si>
+  <si>
+    <t>Met with Jenny from Estuary. Good talk. Learned a few things: (1) Primary key should be "metadata". Set in materialization, (2) Estuary only takes OpenAI embedding model. This could be a weakness. Try to find ways around this and use sentence transformers, (3) Weekly office hours on Thursdays. Found presentation on pre-seed and seed investors.</t>
   </si>
 </sst>
 </file>
@@ -6599,7 +6602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -6641,84 +6644,84 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>45120</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45119</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -6727,10 +6730,10 @@
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -6739,10 +6742,10 @@
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -6751,58 +6754,58 @@
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>45114</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>45113</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -6811,22 +6814,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>33</v>
@@ -6835,168 +6838,169 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>45107</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>45106</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>45104</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>45103</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45102</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>45102</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>45101</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+      <c r="D28" s="9"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <v>45101</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>45101</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>45100</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>28</v>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -7007,7 +7011,7 @@
         <v>45100</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -7018,10 +7022,10 @@
         <v>45100</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7029,10 +7033,10 @@
         <v>45100</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7040,21 +7044,21 @@
         <v>45100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7062,14 +7066,25 @@
         <v>45099</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G26:G29 C1:D1048576">
+  <conditionalFormatting sqref="G27:G30 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4075A2-2DE0-4B79-AC94-5342A9ED48DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FD2D9-43DF-4FFD-B112-30300F5B9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>Met with Jenny from Estuary. Good talk. Learned a few things: (1) Primary key should be "metadata". Set in materialization, (2) Estuary only takes OpenAI embedding model. This could be a weakness. Try to find ways around this and use sentence transformers, (3) Weekly office hours on Thursdays. Found presentation on pre-seed and seed investors.</t>
+  </si>
+  <si>
+    <t>Met with John and had good talk. Next need to do customer survey, pitch deck and BP.</t>
+  </si>
+  <si>
+    <t>Worked on NDA. Started customer focus group on customer survey. Updated pitch deck. Thinking I should either focus on larger customer segment, or dive deeper into niche.</t>
   </si>
 </sst>
 </file>
@@ -6602,7 +6608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -6644,108 +6650,108 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45123</v>
+        <v>45125</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>45122</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45121</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45120</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -6754,10 +6760,10 @@
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -6766,34 +6772,34 @@
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45115</v>
+        <v>45117</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -6802,227 +6808,229 @@
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>45107</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>45106</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>45105</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45106</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>45104</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45110</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
+      <c r="D27" s="4">
+        <v>45110</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>45101</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>45101</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D30" s="9"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>45100</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>34</v>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -7033,10 +7041,10 @@
         <v>45100</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -7044,7 +7052,7 @@
         <v>45100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -7055,7 +7063,7 @@
         <v>45100</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -7063,10 +7071,10 @@
     </row>
     <row r="37" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -7074,17 +7082,39 @@
     </row>
     <row r="38" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>45099</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G27:G30 C1:D1048576">
+  <conditionalFormatting sqref="G29:G32 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FD2D9-43DF-4FFD-B112-30300F5B9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7945C60-FE54-458D-AD23-D530FB3EB9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="5" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -522,6 +522,15 @@
   </si>
   <si>
     <t>Worked on NDA. Started customer focus group on customer survey. Updated pitch deck. Thinking I should either focus on larger customer segment, or dive deeper into niche.</t>
+  </si>
+  <si>
+    <t>No 2</t>
+  </si>
+  <si>
+    <t>Wingman</t>
+  </si>
+  <si>
+    <t>wingbot</t>
   </si>
 </sst>
 </file>
@@ -3995,15 +4004,80 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7CF3B-0014-4143-AE23-606DE82211E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="1860550"/>
+          <a:ext cx="2273300" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,15 +4145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536015</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282015</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4095,8 +4169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4775200" y="2019300"/>
-          <a:ext cx="965200" cy="361950"/>
+          <a:off x="7212853" y="2979271"/>
+          <a:ext cx="959971" cy="367179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4126,7 +4200,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Results</a:t>
+            <a:t>Initial Results</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4135,15 +4209,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4193,7 +4267,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> API</a:t>
+            <a:t> API / Transformer</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4203,15 +4277,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4272,15 +4346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>219261</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>28761</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4295,8 +4369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="215900"/>
-          <a:ext cx="1028700" cy="939800"/>
+          <a:off x="219261" y="1058957"/>
+          <a:ext cx="1023471" cy="952872"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4334,16 +4408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418353</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4358,8 +4432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5549900" y="349250"/>
-          <a:ext cx="1111250" cy="1828800"/>
+          <a:off x="5274235" y="102722"/>
+          <a:ext cx="1850837" cy="420220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4397,15 +4471,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9338</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4421,8 +4495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1384300" y="603250"/>
-          <a:ext cx="1295400" cy="0"/>
+          <a:off x="3651250" y="611094"/>
+          <a:ext cx="1445932" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4450,16 +4524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>260724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9339</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4474,8 +4548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6826250" y="622300"/>
-          <a:ext cx="965200" cy="0"/>
+          <a:off x="11186459" y="1610659"/>
+          <a:ext cx="962586" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4503,16 +4577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4527,8 +4601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6978650" y="393700"/>
-          <a:ext cx="1282700" cy="317500"/>
+          <a:off x="11338859" y="1379444"/>
+          <a:ext cx="1277471" cy="320115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4572,15 +4646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>599141</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4595,8 +4669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="260350"/>
-          <a:ext cx="1746250" cy="203200"/>
+          <a:off x="1206126" y="1140758"/>
+          <a:ext cx="1081742" cy="456079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4639,15 +4713,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4692,16 +4766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491938</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>569633</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4716,8 +4790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1701800" y="1403350"/>
-          <a:ext cx="1327150" cy="476250"/>
+          <a:off x="4133850" y="1384299"/>
+          <a:ext cx="1291665" cy="484094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4761,16 +4835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375770</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4781,12 +4855,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4705350" y="2051050"/>
-          <a:ext cx="781050" cy="6350"/>
+          <a:off x="7064188" y="3211233"/>
+          <a:ext cx="1202391" cy="560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4814,15 +4891,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46692</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4838,8 +4915,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4679950" y="539750"/>
-          <a:ext cx="774700" cy="6350"/>
+          <a:off x="7089588" y="915147"/>
+          <a:ext cx="2061883" cy="9712"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4867,16 +4944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4891,8 +4968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4692650" y="215900"/>
-          <a:ext cx="965200" cy="361950"/>
+          <a:off x="7868023" y="666750"/>
+          <a:ext cx="959971" cy="367180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4931,15 +5008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4984,15 +5061,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5048,16 +5125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>326839</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5071,9 +5148,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6889750" y="914400"/>
-          <a:ext cx="781050" cy="6350"/>
+        <a:xfrm>
+          <a:off x="11252574" y="1914338"/>
+          <a:ext cx="775073" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5101,16 +5178,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>211045</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>566645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5125,8 +5202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832600" y="914400"/>
-          <a:ext cx="965200" cy="361950"/>
+          <a:off x="11136780" y="1961402"/>
+          <a:ext cx="962586" cy="367180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5166,15 +5243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>375024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>141568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>222623</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5189,8 +5266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5429250" y="2286000"/>
-          <a:ext cx="2286000" cy="1009650"/>
+          <a:off x="5230906" y="515097"/>
+          <a:ext cx="2275541" cy="1022724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5247,16 +5324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46318</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135218</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5271,8 +5348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2736850" y="2819400"/>
-          <a:ext cx="1917700" cy="1327150"/>
+          <a:off x="4902200" y="3913841"/>
+          <a:ext cx="1909856" cy="1345453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5327,13 +5404,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5389,16 +5466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>550956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150905</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5413,8 +5490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1473200" y="615950"/>
-          <a:ext cx="1041400" cy="558800"/>
+          <a:off x="3585882" y="614456"/>
+          <a:ext cx="2027891" cy="566644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5457,80 +5534,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D7CF3B-0014-4143-AE23-606DE82211E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540000" y="1860550"/>
-          <a:ext cx="2273300" cy="825500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="20000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5587,15 +5599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>103094</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>58644</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5610,8 +5622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="1733550"/>
-          <a:ext cx="1174750" cy="1073150"/>
+          <a:off x="103094" y="3017744"/>
+          <a:ext cx="1169521" cy="1088839"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5655,15 +5667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>223744</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583079</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5678,8 +5690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="298450" y="2838450"/>
-          <a:ext cx="1581150" cy="304800"/>
+          <a:off x="223744" y="4138333"/>
+          <a:ext cx="4001247" cy="310029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5719,15 +5731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>185644</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>602130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5742,8 +5754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="260350" y="3606800"/>
-          <a:ext cx="1028700" cy="939800"/>
+          <a:off x="185644" y="4917141"/>
+          <a:ext cx="1023471" cy="952874"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5782,15 +5794,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257037</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>36167</xdr:rowOff>
+      <xdr:colOff>341081</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9387</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152123</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93431</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5805,8 +5817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257037" y="4522580"/>
-          <a:ext cx="1574524" cy="295413"/>
+          <a:off x="341081" y="5965947"/>
+          <a:ext cx="4001247" cy="302720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5845,16 +5857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>491924</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15673</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>575968</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>185170</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14207</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269214</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5886,8 +5898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7818847" y="382019"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="12108689" y="1220306"/>
+          <a:ext cx="907216" cy="932358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5898,16 +5910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>55196</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>410796</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5922,8 +5934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7992696" y="1219689"/>
-          <a:ext cx="966177" cy="359996"/>
+          <a:off x="12568431" y="2025652"/>
+          <a:ext cx="962585" cy="367178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5954,6 +5966,1357 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>User</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96127</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396358</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5" descr="User with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5AB9C9-692A-49ED-A7C2-821DCF1AA168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524068" y="4369446"/>
+          <a:ext cx="907216" cy="932358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14252</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485590</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDBE793-40EA-4FE0-98B3-06BD677FF188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2442193" y="5146777"/>
+          <a:ext cx="1078323" cy="605576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Subject Matter Experts</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>233185</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>233545</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>317</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0165365D-78FE-48E4-45EE-52A94BC2EF91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11158920" y="1680840"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0165365D-78FE-48E4-45EE-52A94BC2EF91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11150280" y="1671840"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196104</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle: Rounded Corners 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB530E7A-1FD5-CBE4-7748-C1D755005AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2138456" y="3772644"/>
+          <a:ext cx="1699560" cy="289486"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reinforcement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Learning</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle: Rounded Corners 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED88D0B4-AD52-454D-9685-4BFF29DD4E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2150781" y="2832473"/>
+          <a:ext cx="1699560" cy="289484"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ripple Down Rules</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>140071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F910AB-2C2D-30F5-C2E1-1DAE9E9429AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2988235" y="4062130"/>
+          <a:ext cx="1" cy="392208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>572620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB788A95-D014-4146-A607-6AB3D0AC7EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="0"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2988236" y="3121957"/>
+          <a:ext cx="12325" cy="650687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569634</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="TextBox 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E969BC4F-21CB-45B5-BDFB-9E2564EBAC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997575" y="4179419"/>
+          <a:ext cx="1036544" cy="256243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Knowledge</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36836542-9CE5-4E50-9C5C-7E0476862905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2972548" y="3145862"/>
+          <a:ext cx="1036544" cy="484093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>New Knowledge</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566084</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>572620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB54BD3-7D04-419E-9BD4-62E23DC7D1AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="58" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2994025" y="1867646"/>
+          <a:ext cx="6536" cy="964827"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43331</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472889</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC455670-7B98-4FEA-93E6-1404F99670AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3078257" y="1346571"/>
+          <a:ext cx="1036544" cy="484094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Annotate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469153</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>75826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879BEC67-E461-4874-AF40-DA70C132B0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2290109" y="262591"/>
+          <a:ext cx="1407832" cy="671232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Knowledge Graph</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205442</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4BE94A-E0B6-497F-88D1-E209954110D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9935882" y="1244973"/>
+          <a:ext cx="1195295" cy="734733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Process co-pilot</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>214781</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5393F3B-06FC-ACCC-DEB4-7EBCDA6BFAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8363231" y="-925326"/>
+          <a:ext cx="932141" cy="3408458"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418353</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>75826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Connector: Elbow 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586854EB-E84D-F241-FF31-0A833B749BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2994025" y="312832"/>
+          <a:ext cx="2280210" cy="883582"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28761</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469153</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AAEA0D-E8D7-BD01-58B4-225A8783EE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1242732" y="1532030"/>
+          <a:ext cx="1047377" cy="3363"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>375770</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rectangle 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38595E0F-7FB9-46F9-8B2A-8033C1ADB27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8266579" y="2980018"/>
+          <a:ext cx="912906" cy="462429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Results Ranker</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225237</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422590</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178548</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Connector: Elbow 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A336C9-8AA9-1184-DA77-752D48B10FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10228987" y="646709"/>
+          <a:ext cx="827354" cy="3839265"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199466</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18482872-38B4-4BCF-A844-E4EE74FF59B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8697260" y="2355477"/>
+          <a:ext cx="959971" cy="367179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Initial Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20357</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269214</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Connector: Elbow 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145F0695-CAA4-CDEC-9693-FCD77B2536B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6090210" y="1686485"/>
+          <a:ext cx="6925695" cy="1969994"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3301"/>
+            <a:gd name="adj2" fmla="val 111604"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>386791</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>146985</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="TextBox 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED42AE0-11A6-4DD9-AF8F-719C7300F2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12837086" y="1891553"/>
+          <a:ext cx="959971" cy="367179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Rates Results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298823</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="TextBox 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FA91CC-CA37-4F35-9B25-B7C2A8DBF0A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293971" y="3659469"/>
+          <a:ext cx="1895661" cy="290606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sources get re-rated</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6010,6 +7373,33 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-21T17:15:13.350"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6610,7 +8000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7114,7 +8504,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G29:G32 C1:D1048576">
+  <conditionalFormatting sqref="C1:D1048576 G29:G32">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8642,15 +10032,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8673,8 +10063,9 @@
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -8697,8 +10088,9 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -8721,8 +10113,9 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -8745,8 +10138,12 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -8769,8 +10166,12 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -8793,8 +10194,14 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8817,8 +10224,14 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8841,8 +10254,14 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -8865,8 +10284,12 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -8889,8 +10312,12 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -8913,8 +10340,12 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8937,8 +10368,12 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8961,8 +10396,12 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8985,8 +10424,12 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9009,8 +10452,12 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9033,8 +10480,12 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9057,8 +10508,12 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9081,8 +10536,12 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9105,8 +10564,12 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -9129,8 +10592,12 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -9153,8 +10620,12 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9177,8 +10648,12 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -9201,8 +10676,12 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9225,8 +10704,12 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -9249,8 +10732,12 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9273,8 +10760,12 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -9297,8 +10788,12 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -9321,8 +10816,12 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9345,8 +10844,12 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9369,8 +10872,12 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -9393,8 +10900,12 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -9417,8 +10928,12 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -9441,8 +10956,12 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -9465,8 +10984,12 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -9489,8 +11012,12 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9513,8 +11040,12 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -9537,8 +11068,12 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -9561,8 +11096,12 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -9585,8 +11124,12 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -9609,8 +11152,12 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -9633,8 +11180,12 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -9657,8 +11208,12 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -9681,6 +11236,150 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7945C60-FE54-458D-AD23-D530FB3EB9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29847FD5-4732-40E7-A2C8-A6EBDA06513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="5" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -524,20 +524,20 @@
     <t>Worked on NDA. Started customer focus group on customer survey. Updated pitch deck. Thinking I should either focus on larger customer segment, or dive deeper into niche.</t>
   </si>
   <si>
-    <t>No 2</t>
-  </si>
-  <si>
-    <t>Wingman</t>
-  </si>
-  <si>
-    <t>wingbot</t>
+    <t>C.H.E.W.I.E.</t>
+  </si>
+  <si>
+    <t>Worked on Pitch Deck, use cases, researched pre-seed vs. seed funding. Hongtai mentioned interest in supporting. Has experience in product development and pipeline needed to support product.</t>
+  </si>
+  <si>
+    <t>Came up with CHEWIE. Filled in use cases.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +586,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -619,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -662,6 +670,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4006,13 +4015,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4080,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4147,13 +4156,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>536015</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>282015</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4211,13 +4220,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4279,13 +4288,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4347,13 +4356,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219261</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>125133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28761</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4410,13 +4419,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418353</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>102722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>448234</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>149413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4473,13 +4482,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9338</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4526,13 +4535,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>260724</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9339</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4579,13 +4588,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>413124</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>72091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>476624</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>18677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4647,13 +4656,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>599141</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>20170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466912</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>102719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4715,13 +4724,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4768,13 +4777,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>491938</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>569633</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4837,13 +4846,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>36233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>375770</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>36793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4893,13 +4902,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>46692</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4946,13 +4955,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>100106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5010,13 +5019,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5063,13 +5072,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5127,13 +5136,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>326839</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>46691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>494926</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>46691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5180,13 +5189,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>211045</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>93755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>566645</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>87406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5244,13 +5253,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>375024</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>141568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>222623</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>43703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5326,13 +5335,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>46318</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>178547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>135218</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>29882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5404,13 +5413,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5468,13 +5477,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>550956</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>54162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>150905</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>60512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5536,13 +5545,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5600,13 +5609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>103094</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>29509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>58644</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>184524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5668,13 +5677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>223744</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>29509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>583079</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5732,13 +5741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>185644</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>61259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>602130</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>80309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5795,13 +5804,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>341081</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>176241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>93431</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>105432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5859,14 +5868,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>575968</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>99718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>269214</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>98252</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5912,13 +5921,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>428725</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>158005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>177340</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>151654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5976,14 +5985,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>96127</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>73858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>396358</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>72392</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6029,13 +6038,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14252</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>104130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485590</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6094,17 +6103,17 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>233185</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>186722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>233545</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>317</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>318</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -6123,7 +6132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -6159,13 +6168,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>37350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>196104</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>140071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6227,13 +6236,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>329825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>31002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6290,13 +6299,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>140071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6345,13 +6354,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>572620</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>37350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6401,13 +6410,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>569634</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>70595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6465,13 +6474,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>544607</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>157627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>367180</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>81426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6529,13 +6538,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>566084</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>186764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>572620</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>31002</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6585,13 +6594,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>43331</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>39218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>472889</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>149783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6649,13 +6658,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>469153</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>75826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6718,13 +6727,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>124385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>205442</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6787,13 +6796,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>126067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>214781</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>124385</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6843,13 +6852,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>566084</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>126067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418353</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>75826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6899,13 +6908,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28761</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>37912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>469153</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6955,13 +6964,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>375770</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>178547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74706</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7018,13 +7027,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>225237</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>98253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>422590</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>178548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7076,13 +7085,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>199466</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552452</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7140,13 +7149,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>20357</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>269214</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7199,13 +7208,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>386791</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>101039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>146985</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>127187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7263,13 +7272,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>110940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>298823</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>28016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7998,13 +8007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8040,132 +8049,132 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45127</v>
+        <v>45129</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45123</v>
+        <v>45125</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>45122</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45121</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45120</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -8174,10 +8183,10 @@
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -8186,34 +8195,34 @@
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45115</v>
+        <v>45117</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -8222,289 +8231,313 @@
     </row>
     <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>45107</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>45106</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>65</v>
+        <v>45105</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45106</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
+        <v>45104</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45110</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
+      <c r="D29" s="4">
+        <v>45110</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>45101</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>45101</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D32" s="9"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>45100</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>34</v>
+      <c r="B35" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>45100</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45100</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>45100</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>45099</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G29:G32">
+  <conditionalFormatting sqref="G31:G34 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -10032,15 +10065,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FF080-9AD9-4A26-A8C8-2A6C2F748CFF}">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10050,7 +10083,9 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="J1" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -10064,6 +10099,9 @@
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
@@ -10089,6 +10127,9 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
@@ -10114,6 +10155,9 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
@@ -10196,9 +10240,7 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -10226,9 +10268,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
@@ -10256,9 +10296,7 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -11381,9 +11419,38 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29847FD5-4732-40E7-A2C8-A6EBDA06513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1080E6D1-6D29-4996-BDD0-72B377835574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>Came up with CHEWIE. Filled in use cases.</t>
+  </si>
+  <si>
+    <t>Made new data capture and vectorDB with primary key in Estuary Flow and Pinecone. Sent Ankit use case deck.</t>
+  </si>
+  <si>
+    <t>Made list of 10-12 questions for interviewees.</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8007,13 +8013,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8051,10 +8057,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45129</v>
+        <v>45131</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -8063,142 +8069,142 @@
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45128</v>
+        <v>45130</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45127</v>
+        <v>45129</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45123</v>
+        <v>45125</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>45122</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45121</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45120</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -8207,10 +8213,10 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -8219,263 +8225,265 @@
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45115</v>
+        <v>45117</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45114</v>
+        <v>45116</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45113</v>
+        <v>45115</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>45110</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>45109</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>45108</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>45107</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>45106</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>45104</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>45103</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="4">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>45101</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>45101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="D34" s="9"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45100</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>34</v>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -8486,10 +8494,10 @@
         <v>45100</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8497,7 +8505,7 @@
         <v>45100</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -8508,7 +8516,7 @@
         <v>45100</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -8516,10 +8524,10 @@
     </row>
     <row r="41" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -8527,17 +8535,39 @@
     </row>
     <row r="42" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>45099</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G31:G34 C1:D1048576">
+  <conditionalFormatting sqref="G33:G36 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8723,10 +8753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -8745,10 +8775,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -10083,7 +10113,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>126</v>
       </c>
       <c r="K1" s="12"/>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1080E6D1-6D29-4996-BDD0-72B377835574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B2A992-94D8-4EF1-93AF-2D74C7D5EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>Made list of 10-12 questions for interviewees.</t>
+  </si>
+  <si>
+    <t>Sat in on Google GenAI meeting. Learned of two new, cool tools: (1) User in the loop feedback and (2) Vertex AI. Be sure to check out these tools.</t>
+  </si>
+  <si>
+    <t>Got started with UserInterviews and Sprig. Using the latter to create the survey and the former to reach folks.</t>
+  </si>
+  <si>
+    <t>Launched both surveys successfully (in-person and unmonitiored)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +629,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -633,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -676,6 +691,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8013,13 +8032,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8056,11 +8075,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>45131</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>130</v>
+      <c r="A2" s="23">
+        <v>45134</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -8069,34 +8088,34 @@
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45130</v>
+        <v>45133</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -8105,10 +8124,10 @@
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45127</v>
+        <v>45130</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -8117,22 +8136,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45126</v>
+        <v>45129</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45125</v>
+        <v>45128</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -8141,10 +8160,10 @@
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45124</v>
+        <v>45127</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -8153,46 +8172,46 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45123</v>
+        <v>45126</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45120</v>
+        <v>45123</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -8201,46 +8220,46 @@
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45117</v>
+        <v>45120</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45116</v>
+        <v>45119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -8249,193 +8268,190 @@
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45115</v>
+        <v>45118</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45113</v>
+        <v>45116</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45112</v>
+        <v>45115</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45111</v>
+        <v>45114</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>45110</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45109</v>
+        <v>45112</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>45106</v>
+        <v>45109</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="4">
-        <v>45106</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>45105</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4">
-        <v>45110</v>
+        <v>45106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>44</v>
+        <v>45104</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>45103</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -8443,83 +8459,89 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>45101</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>37</v>
+      <c r="B40" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8527,7 +8549,7 @@
         <v>45100</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -8538,36 +8560,69 @@
         <v>45100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>45100</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="45" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G33:G36 C1:D1048576">
+  <conditionalFormatting sqref="G36:G39 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B2A992-94D8-4EF1-93AF-2D74C7D5EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765B1E4-C13E-4A68-BF61-6B7B0AA6B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>Launched both surveys successfully (in-person and unmonitiored)</t>
+  </si>
+  <si>
+    <t>In DC</t>
+  </si>
+  <si>
+    <t>Setup moderated and unmoderated surveys</t>
+  </si>
+  <si>
+    <t>Updated surveys</t>
+  </si>
+  <si>
+    <t>Updated surveys. Started new course on DeepLearningAI on transformers and finding more deterministic results</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -689,11 +701,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8032,13 +8047,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8075,203 +8090,203 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
-        <v>45134</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="4">
+        <v>45140</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45133</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
+        <v>45140</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45132</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45131</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
+        <v>45138</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45130</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
+        <v>45137</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45129</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
+        <v>45136</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45128</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
+        <v>45135</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45127</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>125</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
+        <v>45134</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -8280,46 +8295,46 @@
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -8328,10 +8343,10 @@
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -8340,106 +8355,106 @@
     </row>
     <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>45107</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="4">
-        <v>45106</v>
-      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -8448,181 +8463,265 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
+        <v>45110</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="4">
-        <v>45110</v>
-      </c>
+        <v>45109</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
+        <v>45108</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="4">
         <v>45117</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>45101</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
-        <v>45101</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
+        <v>45101</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="9"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>45101</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
+        <v>45101</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>26</v>
+        <v>45100</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="48" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G36:G39 C1:D1048576">
+  <conditionalFormatting sqref="G43:G46 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8808,10 +8907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -8830,10 +8929,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765B1E4-C13E-4A68-BF61-6B7B0AA6B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183299E-F0B5-47C3-87C5-3236BCC5B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="165" yWindow="7965" windowWidth="28635" windowHeight="7635" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>Updated surveys. Started new course on DeepLearningAI on transformers and finding more deterministic results</t>
+  </si>
+  <si>
+    <t>Started fresh unmoderated survey to hone in on certain customer types</t>
+  </si>
+  <si>
+    <t>Conducted interviews.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -707,9 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7757,15 +7760,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -7781,19 +7784,19 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
@@ -7801,19 +7804,19 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>89</v>
       </c>
@@ -7821,19 +7824,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="19"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -7841,86 +7844,86 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>77</v>
       </c>
@@ -7939,49 +7942,49 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7999,42 +8002,42 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -8047,26 +8050,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C8"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8089,639 +8092,687 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45140</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>136</v>
+        <v>45144</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>45140</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>137</v>
+        <v>45143</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45139</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>134</v>
+        <v>45142</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45138</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>134</v>
+        <v>45141</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>45137</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>135</v>
+        <v>45140</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>45136</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>135</v>
+        <v>45140</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>45135</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>135</v>
+        <v>45139</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45138</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45137</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45136</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45135</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>45134</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B13" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45133</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45132</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45131</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>45130</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>45129</v>
+        <v>45133</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>45127</v>
+        <v>45131</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>45126</v>
+        <v>45130</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>45125</v>
+        <v>45129</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45124</v>
+        <v>45128</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45123</v>
+        <v>45127</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>45122</v>
+        <v>45126</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>45120</v>
+        <v>45124</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>45119</v>
+        <v>45123</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>45118</v>
+        <v>45122</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>45117</v>
+        <v>45121</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>45116</v>
+        <v>45120</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>45113</v>
+        <v>45117</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>45112</v>
+        <v>45116</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>45111</v>
+        <v>45115</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>45110</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>45109</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>45108</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>45107</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>45106</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>45105</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D42" s="4">
         <v>45106</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>45104</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>45103</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>45102</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D45" s="4">
         <v>45110</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45102</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D46" s="4">
         <v>45117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>45101</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>45101</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="10">
+      <c r="D48" s="9"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>45101</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>45101</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45100</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>31</v>
+      <c r="B51" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45100</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>45099</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G43:G46 C1:D1048576">
+  <conditionalFormatting sqref="G47:G50 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8747,9 +8798,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -8760,7 +8811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8768,7 +8819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8776,7 +8827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8784,7 +8835,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8792,7 +8843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8800,7 +8851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8808,7 +8859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8816,7 +8867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8824,7 +8875,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8832,57 +8883,57 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8900,19 +8951,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8920,7 +8971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -8928,13 +8979,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8942,7 +8993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8950,7 +9001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -8958,7 +9009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -8966,7 +9017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -8974,7 +9025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -9000,9 +9051,9 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9023,7 +9074,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -9044,7 +9095,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -9065,7 +9116,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -9086,7 +9137,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -9107,7 +9158,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -9128,7 +9179,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -9149,7 +9200,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -9170,7 +9221,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -9191,7 +9242,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -9212,7 +9263,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -9233,7 +9284,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -9254,7 +9305,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -9275,7 +9326,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9296,7 +9347,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9317,7 +9368,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9338,7 +9389,7 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9359,7 +9410,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9380,7 +9431,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9401,7 +9452,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -9422,7 +9473,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -9443,7 +9494,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9464,7 +9515,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -9485,7 +9536,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9506,7 +9557,7 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -9527,7 +9578,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9548,7 +9599,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -9569,7 +9620,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -9590,7 +9641,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9611,7 +9662,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9632,7 +9683,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -9653,7 +9704,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -9674,7 +9725,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -9695,7 +9746,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -9716,7 +9767,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -9737,7 +9788,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9758,7 +9809,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -9779,7 +9830,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -9800,7 +9851,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -9821,7 +9872,7 @@
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -9842,7 +9893,7 @@
       <c r="R40" s="20"/>
       <c r="S40" s="20"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -9863,7 +9914,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -9884,7 +9935,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -9905,7 +9956,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -9926,7 +9977,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -9947,7 +9998,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -9968,7 +10019,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -9989,7 +10040,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -10010,7 +10061,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -10031,7 +10082,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -10052,7 +10103,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -10073,7 +10124,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -10094,7 +10145,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -10115,7 +10166,7 @@
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -10136,7 +10187,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -10157,7 +10208,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -10178,7 +10229,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -10199,7 +10250,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -10220,7 +10271,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -10255,9 +10306,9 @@
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10287,7 +10338,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -10315,7 +10366,7 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -10343,7 +10394,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -10371,7 +10422,7 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -10399,7 +10450,7 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -10427,7 +10478,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -10455,7 +10506,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10483,7 +10534,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -10511,7 +10562,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -10539,7 +10590,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -10567,7 +10618,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10595,7 +10646,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -10623,7 +10674,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -10651,7 +10702,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -10679,7 +10730,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -10707,7 +10758,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -10735,7 +10786,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -10763,7 +10814,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -10791,7 +10842,7 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -10819,7 +10870,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10847,7 +10898,7 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10875,7 +10926,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10903,7 +10954,7 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10931,7 +10982,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -10959,7 +11010,7 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -10987,7 +11038,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -11015,7 +11066,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -11043,7 +11094,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -11071,7 +11122,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -11099,7 +11150,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -11127,7 +11178,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -11155,7 +11206,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -11183,7 +11234,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -11211,7 +11262,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -11239,7 +11290,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -11267,7 +11318,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -11295,7 +11346,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -11323,7 +11374,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -11351,7 +11402,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -11379,7 +11430,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -11407,7 +11458,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11435,7 +11486,7 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11463,7 +11514,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -11491,7 +11542,7 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -11519,7 +11570,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -11547,7 +11598,7 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -11575,7 +11626,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -11603,7 +11654,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -11646,9 +11697,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11656,7 +11707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11677,24 +11728,24 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -11713,19 +11764,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Personal\LearnH2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5183299E-F0B5-47C3-87C5-3236BCC5B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378CBF0-4C51-4FEE-8169-63A8F715272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="7965" windowWidth="28635" windowHeight="7635" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -560,10 +560,10 @@
     <t>Updated surveys. Started new course on DeepLearningAI on transformers and finding more deterministic results</t>
   </si>
   <si>
-    <t>Started fresh unmoderated survey to hone in on certain customer types</t>
-  </si>
-  <si>
     <t>Conducted interviews.</t>
+  </si>
+  <si>
+    <t>Started fresh unmoderated survey to hone in on certain customer types. Share MI reports with Hongtai to see if this data can be found.</t>
   </si>
 </sst>
 </file>
@@ -7760,15 +7760,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="103.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -7784,19 +7784,19 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
@@ -7804,19 +7804,19 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>89</v>
       </c>
@@ -7824,19 +7824,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="19"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -7844,86 +7844,86 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>77</v>
       </c>
@@ -7942,49 +7942,49 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -8002,42 +8002,42 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -8056,20 +8056,20 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8092,19 +8092,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45143</v>
       </c>
@@ -8116,31 +8116,31 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45142</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45141</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>45140</v>
       </c>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45140</v>
       </c>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45139</v>
       </c>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45138</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45137</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45136</v>
       </c>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45135</v>
       </c>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>45134</v>
       </c>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45133</v>
       </c>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>45132</v>
       </c>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>45131</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>45130</v>
       </c>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>45129</v>
       </c>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>45128</v>
       </c>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45127</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>45126</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45125</v>
       </c>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>45124</v>
       </c>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45123</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45122</v>
       </c>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>45121</v>
       </c>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>45120</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>45119</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>45118</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>45117</v>
       </c>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>45116</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>45115</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>45114</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>45113</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>45112</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>45111</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45110</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>45109</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>45108</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>45107</v>
       </c>
@@ -8558,7 +8558,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>45106</v>
       </c>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>45105</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>45104</v>
       </c>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>45103</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45102</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45102</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45101</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45101</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="D48" s="9"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>45101</v>
       </c>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>45101</v>
       </c>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>45100</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>45100</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>45100</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>45100</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>45100</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>45100</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>45099</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>45099</v>
       </c>
@@ -8772,7 +8772,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G47:G50 C1:D1048576">
+  <conditionalFormatting sqref="C1:D1048576 G47:G50">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8798,9 +8798,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8883,57 +8883,57 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8951,19 +8951,19 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -8979,13 +8979,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -9051,9 +9051,9 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9074,7 +9074,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -9095,7 +9095,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -9116,7 +9116,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -9137,7 +9137,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -9158,7 +9158,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -9179,7 +9179,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -9200,7 +9200,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -9221,7 +9221,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -9263,7 +9263,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -9305,7 +9305,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -9326,7 +9326,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9347,7 +9347,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9368,7 +9368,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -9389,7 +9389,7 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -9410,7 +9410,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -9431,7 +9431,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9452,7 +9452,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -9473,7 +9473,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -9494,7 +9494,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9515,7 +9515,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -9536,7 +9536,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -9557,7 +9557,7 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -9578,7 +9578,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -9599,7 +9599,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -9620,7 +9620,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -9641,7 +9641,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9662,7 +9662,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -9683,7 +9683,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -9704,7 +9704,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -9725,7 +9725,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -9746,7 +9746,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -9767,7 +9767,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -9788,7 +9788,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9809,7 +9809,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -9830,7 +9830,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -9851,7 +9851,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -9872,7 +9872,7 @@
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -9893,7 +9893,7 @@
       <c r="R40" s="20"/>
       <c r="S40" s="20"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -9914,7 +9914,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -9935,7 +9935,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -9956,7 +9956,7 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -9977,7 +9977,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -9998,7 +9998,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -10019,7 +10019,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -10040,7 +10040,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -10061,7 +10061,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -10082,7 +10082,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -10103,7 +10103,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -10124,7 +10124,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -10145,7 +10145,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -10166,7 +10166,7 @@
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -10187,7 +10187,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -10208,7 +10208,7 @@
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -10229,7 +10229,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -10250,7 +10250,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -10271,7 +10271,7 @@
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -10306,9 +10306,9 @@
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -10338,7 +10338,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -10366,7 +10366,7 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -10394,7 +10394,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -10422,7 +10422,7 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -10450,7 +10450,7 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -10478,7 +10478,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -10506,7 +10506,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -10534,7 +10534,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -10562,7 +10562,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -10590,7 +10590,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -10618,7 +10618,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -10646,7 +10646,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -10674,7 +10674,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -10702,7 +10702,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -10730,7 +10730,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -10758,7 +10758,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -10786,7 +10786,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -10814,7 +10814,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -10842,7 +10842,7 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -10870,7 +10870,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10898,7 +10898,7 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10926,7 +10926,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10954,7 +10954,7 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10982,7 +10982,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -11010,7 +11010,7 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -11038,7 +11038,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -11066,7 +11066,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -11094,7 +11094,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -11122,7 +11122,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -11150,7 +11150,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -11178,7 +11178,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -11206,7 +11206,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -11234,7 +11234,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -11262,7 +11262,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -11290,7 +11290,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -11318,7 +11318,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -11346,7 +11346,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -11374,7 +11374,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -11402,7 +11402,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -11430,7 +11430,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -11458,7 +11458,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -11486,7 +11486,7 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -11514,7 +11514,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -11542,7 +11542,7 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -11570,7 +11570,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -11598,7 +11598,7 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -11626,7 +11626,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -11654,7 +11654,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -11697,9 +11697,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11728,24 +11728,24 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -11764,19 +11764,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E378CBF0-4C51-4FEE-8169-63A8F715272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37613B2E-2FE2-4F30-A4F6-0AABD10782A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -565,12 +565,21 @@
   <si>
     <t>Started fresh unmoderated survey to hone in on certain customer types. Share MI reports with Hongtai to see if this data can be found.</t>
   </si>
+  <si>
+    <t>8/7-8/13</t>
+  </si>
+  <si>
+    <t>Review surveys and in California</t>
+  </si>
+  <si>
+    <t>DONe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +636,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -666,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -713,6 +730,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8050,13 +8071,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8092,24 +8113,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>45144</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45143</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>33</v>
@@ -8118,10 +8139,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
@@ -8130,7 +8151,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>138</v>
@@ -8142,34 +8163,34 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45140</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>33</v>
@@ -8178,7 +8199,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>134</v>
@@ -8190,10 +8211,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>33</v>
@@ -8202,7 +8223,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>135</v>
@@ -8214,7 +8235,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>135</v>
@@ -8225,23 +8246,23 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
+      <c r="A13" s="4">
+        <v>45135</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
         <v>45134</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45133</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -8250,58 +8271,58 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -8310,118 +8331,118 @@
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>45120</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>45119</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -8430,10 +8451,10 @@
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8442,10 +8463,10 @@
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -8454,252 +8475,253 @@
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>45114</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>45113</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>45110</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>45109</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>45108</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>45107</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>45106</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D43" s="4">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>45103</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="4">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45102</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>44</v>
+      <c r="B46" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>45102</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D47" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45101</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="10">
+      <c r="D49" s="9"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
         <v>45101</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>45101</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>33</v>
-      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>45100</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>28</v>
+      <c r="B52" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
@@ -8710,7 +8732,7 @@
         <v>45100</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -8721,10 +8743,10 @@
         <v>45100</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8732,10 +8754,10 @@
         <v>45100</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8743,21 +8765,21 @@
         <v>45100</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8765,14 +8787,25 @@
         <v>45099</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="59" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G47:G50">
+  <conditionalFormatting sqref="C1:D1048576 G48:G51">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>

--- a/Daily Project Journal.xlsx
+++ b/Daily Project Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\PythonAI\LearnH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37613B2E-2FE2-4F30-A4F6-0AABD10782A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B92037-69A7-4A4E-901D-6BCA13FCED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
+    <workbookView xWindow="6410" yWindow="550" windowWidth="13030" windowHeight="10710" tabRatio="877" activeTab="1" xr2:uid="{0B88B0BF-69A4-467A-8E1E-488C50FA036B}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPFeatures" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
   <si>
     <t>List of capabilities</t>
   </si>
@@ -435,42 +435,6 @@
     <t>-- TO DO: Add more knowledge, make list of agencies, consultants, sources</t>
   </si>
   <si>
-    <t>NREL</t>
-  </si>
-  <si>
-    <t>ANL</t>
-  </si>
-  <si>
-    <t>IRENA</t>
-  </si>
-  <si>
-    <t>CARB</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>DOE</t>
-  </si>
-  <si>
-    <t>IRS</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>LinkedIn - H2 forums</t>
-  </si>
-  <si>
-    <t>Reddit - H2 news</t>
-  </si>
-  <si>
     <t>Added more to the business plan. Updated H2 knowledge database now with 200 files, trying to get into Pinecone but seeing Materialization error. Bought tickets to Pinecone AI summit. Better meet some folks, find a Dev co-founder or talk to Jamie next.</t>
   </si>
   <si>
@@ -573,6 +537,96 @@
   </si>
   <si>
     <t>DONe</t>
+  </si>
+  <si>
+    <t>Activity Category</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Activity or Need</t>
+  </si>
+  <si>
+    <t>Energy consumption</t>
+  </si>
+  <si>
+    <t>Energy costs</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Energy efficiency</t>
+  </si>
+  <si>
+    <t>Sustainability standards, frameworks, processes</t>
+  </si>
+  <si>
+    <t>Municipal requirements</t>
+  </si>
+  <si>
+    <t>Community stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Sustainabiltiy methodolgy</t>
+  </si>
+  <si>
+    <t>Comparative analysis (peers, technologies)</t>
+  </si>
+  <si>
+    <t>Executive management stakeholder engagement</t>
+  </si>
+  <si>
+    <t>ESG Reporting</t>
+  </si>
+  <si>
+    <t>Research solutions</t>
+  </si>
+  <si>
+    <t>Research technologies</t>
+  </si>
+  <si>
+    <t>Economic feasibility</t>
+  </si>
+  <si>
+    <t>Risk assessment</t>
+  </si>
+  <si>
+    <t>Federal regulation</t>
+  </si>
+  <si>
+    <t>Federal incentives</t>
+  </si>
+  <si>
+    <t>Models and tools</t>
+  </si>
+  <si>
+    <t>Data collection</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Investor stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Regulations, requirements, incentives</t>
+  </si>
+  <si>
+    <t>Spoke with Hongtai. Discuss team, sustainability and reporting needs</t>
   </si>
 </sst>
 </file>
@@ -728,12 +782,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5482,9 +5538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>410882</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5499,8 +5555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1174750"/>
-          <a:ext cx="1581150" cy="304800"/>
+          <a:off x="0" y="2619188"/>
+          <a:ext cx="1624853" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7090,13 +7146,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>225237</xdr:colOff>
+      <xdr:colOff>225238</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>98253</xdr:rowOff>
+      <xdr:rowOff>98254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>422590</xdr:colOff>
+      <xdr:colOff>422591</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>178548</xdr:rowOff>
     </xdr:to>
@@ -7116,8 +7172,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="10228987" y="646709"/>
-          <a:ext cx="827354" cy="3839265"/>
+          <a:off x="10228988" y="1141636"/>
+          <a:ext cx="827353" cy="3839265"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7390,6 +7446,134 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Sources get re-rated</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>574990</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connector: Elbow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB8AE8E-D465-47E1-BBF6-32387AAC3BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9179485" y="2799992"/>
+          <a:ext cx="3535211" cy="906167"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264834</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466912</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEF43A6-E525-4355-815A-811EF94835E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9369613" y="3476065"/>
+          <a:ext cx="1416049" cy="259229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>related questions</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8071,7 +8255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65F3B7-4679-46BB-9C6C-4439D434827C}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -8114,35 +8298,35 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>142</v>
+      <c r="A2" s="4">
+        <v>45152</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>45144</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45143</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
@@ -8151,10 +8335,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
@@ -8163,10 +8347,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>33</v>
@@ -8175,34 +8359,34 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45140</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>33</v>
@@ -8211,10 +8395,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>33</v>
@@ -8223,10 +8407,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
@@ -8235,10 +8419,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>33</v>
@@ -8247,10 +8431,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>33</v>
@@ -8258,23 +8442,23 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
+      <c r="A14" s="4">
+        <v>45135</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>45134</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45133</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>132</v>
+      <c r="B15" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -8283,58 +8467,58 @@
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -8343,118 +8527,118 @@
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>45120</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>45119</v>
-      </c>
       <c r="B29" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -8463,10 +8647,10 @@
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -8475,10 +8659,10 @@
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -8487,58 +8671,58 @@
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>45114</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>45113</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>45112</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -8547,22 +8731,22 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>33</v>
@@ -8571,168 +8755,169 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
+        <v>70</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>45107</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>45106</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>45105</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="4">
-        <v>45106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4">
+        <v>45106</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>45103</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>65</v>
+        <v>45104</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>45102</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>43</v>
+        <v>45103</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
-      </c>
-      <c r="D46" s="4">
-        <v>45110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45102</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>44</v>
+      <c r="B47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="4">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>45101</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>38</v>
+        <v>45102</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D48" s="4">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>45101</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="10">
+      <c r="D50" s="9"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
         <v>45101</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>45101</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
-        <v>45100</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>45100</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>28</v>
+      <c r="B53" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -8743,7 +8928,7 @@
         <v>45100</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
@@ -8754,10 +8939,10 @@
         <v>45100</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8765,10 +8950,10 @@
         <v>45100</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8776,21 +8961,21 @@
         <v>45100</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>45099</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>25</v>
+        <v>45100</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -8798,14 +8983,25 @@
         <v>45099</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="60" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1048576 G48:G51">
+  <conditionalFormatting sqref="G49:G52 C1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
@@ -8825,150 +9021,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DD849F-3554-454C-B194-4B82089ABFD8}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8991,10 +9215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -9013,10 +9237,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -9080,7 +9304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC1441B-92AB-4D26-A8D1-26583D2CCC09}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="74" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -10336,7 +10560,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10352,7 +10576,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -11811,7 +12035,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
